--- a/example/data/markers.xlsx
+++ b/example/data/markers.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jupyter-note\南苑寻游数据输出\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODE\NFU_Map\NFU-Guide-Map\example\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,11 +18,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$111</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="422">
   <si>
     <t>type</t>
   </si>
@@ -88,9 +89,6 @@
   </si>
   <si>
     <t>23.629113,113.679507</t>
-  </si>
-  <si>
-    <t>西区公园</t>
   </si>
   <si>
     <t>23.629958,113.677726</t>
@@ -373,9 +371,6 @@
   </si>
   <si>
     <t>超市（东）</t>
-  </si>
-  <si>
-    <t>东超</t>
   </si>
   <si>
     <t>23.633767,113.682350</t>
@@ -1295,12 +1290,151 @@
     <t>孙中山铜像</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>西区公园</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>东超</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://apd-243195a0d05825b7cd3ebdeda78136be.v.smtcdns.com/vlive.qqvideo.tc.qq.com/AQECvLV1M4oZqlEAzyLQt8HGpWoVFlovOHvrhGxHZ7pQ/uwMROfz2r5zCIaQXGdGnC2dfDmavB6NbsWKJAiRTQBPbT70a/i0882ohko02.mp4?sdtfrom=v1010&amp;guid=ebddc2216a27c93fd40f6ce67cde345b&amp;vkey=240BC704C8F2633C68707B81EBAC06CC4D389590BCD389698ABF95700B760417B89DE8930B219A5B5A6AF80DB1051D6889EFAF82454D07B47D9D4C1D1A3A1EF556D6118264946623F4A2BB24A248F45A16261C8B219B598D74636FB4F4335C2CE16F595E5AC6CE7F6EDB0A30E59254B93C281B2AFA76778964FD78EB5FAF2A53#t=93</t>
+  </si>
+  <si>
+    <t>video</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>owner</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://ugcbsy.qq.com/uwMROfz2r5zBIaQXGdGnC2dfJ6rpDQ3b2TKx6JIUPHv8hNH8/b0337bq7vqu.p702.1.mp4?sdtfrom=v1105&amp;guid=ebddc2216a27c93fd40f6ce67cde345b&amp;vkey=89CAA47A9F780A36FE715AB51BEFE638FDA97E7E5D35707EF32B9947EC4DC2C34B121DC6740F7342FEB345AD9ECE8E02A501C125396E1C011498A93183493CE0AD9057F37B3429B3BE6A8E426D8B5549DC47510C63A355DE0613A9FA25A3409071550B3E6815D1A50AA37564C2DA75B1E51DCF3BBEA5EAAAC6B7A03AF51C7135</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>文传学院办公室</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>文学与传媒学院，前身为文学系，创建于2006年，是我校最早设立的学系之一，2012年更名为文学与传媒系。为适应发展的需要，2017年又升格为文学与传媒学院。学院秉承"以生为本、实践育人"的办学理念，坚持内涵建设，在教学中坚持"实践育人"的方向，大力弘扬改革创新精神，以培养具备良好综合素质、深厚的知识底蕴、开阔的学术视野的应用型、复合型人才为目标，不断提高办学层次和教学质量，开创了学科专业融合、课内课外融合、研究应用融合、学生教师融合和校内校外融合"五融合"的培养模式，构建了以知识为基础，以市场为导向，以实践为手段的综合培养平台，为地方和国家培养了一大批新时代高素质应用型人才。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电气与计算机工程学院（School of Electrical and Computer Engineering），其前身为电子通信与 软件工程系，始建于2006年，是中山大学南方学院唯一的理工科学院。十多年风雨兼程，电气与计算机工 程学院一路走来，以培养创新应用型IT工程技术人才为宗旨，严谨治学、高效管理，可谓硕果累累。 十年来，我们坚持以卓越工程师教育、国际工程教育专业认证与实践、产学高度融合的人才培养模式。 以培养信息技术各学科专业应用型工程技术人才为目标，秉承以生为本的作风，教师以教书育人为典范， 学生以创新实践为根本。以点亮光明的电气工程师爱迪生、电子学科晶体管发明人巴丁、通信信息论创始 人香农、计算机之父图灵、现代IT创新之父乔布斯等先驱为榜样，不断学习、勇于创新，在工匠精神的指 引下，电与计算机各学科专业充分融合，助力中山大学南方学院跻身国内一流民办大学，共创美好未来。</t>
+  </si>
+  <si>
+    <t>会计学院的前身是2009年9月从管理学系分立出独立设置的会计学系，2016年4月更名为会计学院，现设会计学、审计学、财务管理三个专业。会计学专业为南方学院重点建设专业和广东省应用型人才培养示范专业；财务管理专业为南方学院首批特色建设专业和广东省人才培养模式创新实验区建设专业；审计学专业是与广州市内部审计协会共建专业。在艾瑞深中国校友会网2019年专业排名中，会计学专业和财务管理专业均为区域第1名、6星级中国顶尖独立学院专业。</t>
+  </si>
+  <si>
+    <t>中山大学南方学院外国语学院是全校人文学科中最早成立的学院，分西方语言文学系、东方语言文学系，是“粤港澳大湾区应用型外语学科联盟”（2018成立）领军单位。提倡工匠精神，实践“博雅、诚信、感恩、国际视野”的十字院训。现有全日制本科生近2000人。学院专、兼职教师共70余人。其中教授10人、副教授7人、博士与在读博士约30人。全职外籍教师12人。中山大学外国语学院博士生导师丁建新教授为我院创院院长。聘请耶鲁大学博士、原宾夕法尼亚大学教授Peter Steiner为名誉院长。 我们追求“宽口径、高规格、国际化”的外文特色。“兼容并蓄、海纳百川”，近五年来外国语学院邀请国内外名师来讲学，前后近200场。设有“东西方语言文化论坛”、“流溪论坛”、“王宗炎先生纪念论坛”等常规性的学院讲座系列。与台湾玄奘大学社会科学院合办《东亚学术研究》期刊。在2017年艾瑞森专业评估中，我院在同类学校中名列前茅。其中汉语国际教育全国第一、日语全国第四、英语全国第十，为全省同类院校中整体成绩最好的外语学科。近5年来学院教师发表了论文150篇，科研课题立项40项。出版“全国英语专业博雅系列教材”20余部。学院成立“华南澳研中心”、“北美研究中心”、“韩礼德研究中心”等学术机构，创办“博雅书屋”。我院现有近20个出国留学与实习项目。包括与英国斯旺西大学合作的翻译、口译、TESOL、国际传媒1+1（PMP）项目、法国里昂天主教大学交换留学项目、英美澳硕士预科（Pre-Master）项目、国际本科预科（IFC）项目，与日本、韩国、泰国、印尼等国家开展的学生实习项目等。 近年来学院举办了“第六届当代中国新话语国际研讨会”、“韩礼德研究会”（两届）、“美国高等教育价值协会外语教师工作坊”（两届）、“苏东坡诞辰980周年跨年晚会”、“中澳表演艺术交流计划项目《变》”等大型学术、文化活动。2018年11月，我们与教育部商务英语协作组合作举办了“全国商务英语专业院系负责人联席会议”。2019年5月，我们与北京大学外国语学院、淡江大学（台湾）外国语文学院合作举办“海峡两岸外国语言文学论坛”及大型文学性综艺晚会“仰望星空——永远的王尔德”。这些活动为我们在国内外界赢得了良好的声誉。外国语学院历届毕业生在出国留学、考研深造等方面都表现突出。作为我院青年文化品牌的“山人艺术团”近年来在国内高校声名渐起。</t>
+  </si>
+  <si>
+    <t>艺术设计与创意产业系自建成以来，紧扣“国际化、应用型、新体验”教育方针，致力于培养高素质设计与创意创新人才。本系目前有在校生1193人，设有艺术设计学、数字媒体艺术、公共艺术和数字媒体技术四个专业，其中艺术设计学下设：UI设计、平面设计两个方向；数字媒体艺术下设：影视制作和数字产品、游戏与交互设计两个方向；公共艺术下设：空间设计和空间艺术两个方向；数字媒体技术专业主设交互设计。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共管理学系成立于2007年9月，秉承中山大学传统，借助中山大学资源，开创了具有本系特色的“宽基础、突重点、重能力、强实操”的人才培养模式，以教学为中心，为社会培养高素质的应用型人才。 本系现设四个专业：行政管理、人力资源管理、公共关系学和文化产业管理。共有全日制本科生1600余人。其中行政管理专业为中山大学南方学院重点专业，2012年度获广东省专业综合改革试点项目立项支持。人力资源管理为中山大学南方学院首批特色专业，2015年获广东省专业综合改革项目立项支持。 公共管理学系现拥有一支专业基础扎实、教学经验丰富、充满活力和朝气的教师队伍，并聘请中山大学政治与公共事务管理学院名誉院长、中国当代行政学的主要奠基人夏书章教授为学术顾问，聘请清华大学教授、教育部“长江学者”任剑涛教授为客座教授。同时聘请来自中山大学等名校的教授、专家授课，并于近年陆续引进了数十位台湾高水平博士。多位教师具有美国、英国、法国、澳大利亚等国外名校学历。教师的学术水平以及教学效果，深受学生和家长的好评。 公共管理学系坚持以教学为中心，保证教学质量的同时，注重专业和技术能力的培养，强化学生实际动手能力和操作能力训练，通过案例教学把学生带入真实的管理情境之中，为学生提供社会实践机会，从而培养具有扎实的专业能力和开阔的管理视野的复合型应用人才。 历届毕业生中，部分考取公务员或进入基层政府部门任职，也有一定比例到国内外优秀高校攻读硕士研究生，或进入企事业单位工作。 依托本系的师资与资源，南方学院于2013年成立了国家猎头研究中心，是国内首个致力于猎头学术研究的高校研究中心，并于2018年牵头成立了广东省猎头研究学会，汇聚猎头行业的理论与实务人才。</t>
+  </si>
+  <si>
+    <t>中山大学南方学院云康医学与健康管理学院由我校与云康集团合作办学，是国内医学检验教育首批实施校企合作办学新模式的专业学院。我院注重学生个人发展与社会发展的紧密结合，秉承“立足临床需求，强化实践能力”的办学理念，形成“早期进入临床、早期进入科研、早期进入行业实践、早期接轨国际发展”的“四早培养特色”，致力于培养掌握专业技能、具有创新能力、符合社会发展需求、拥有全球视野的高级医学检验技术人才，力争将我系打造为华南领先、全国一流、世界知名的高等综合院校医学检验专业。在师资方面，我院依托中山大学和云康集团深厚的医学底蕴和广阔的平台，拥有一支以陈志德教授为核心、实力雄厚、结构合理的教师队伍，其中包括国际医学机构的专家、学者，以及一批企事业单位的高级研究员、检验科室主任和高级工程师。教学注重实践指导，以强化学生实践能力培养及产教融合。我院拥有云康集团在内的一批实力雄厚的实习单位，已与云康集团签订人才发展战略合作协议，为学生提供充分的就业保障。云康集团是源于中山大学的从事专业医学服务、大众健康服务及相关技术支持服务的高科技企业集团，是中山大学医学科技服务体系的核心成员和执行单位，在医学检验领域构建了集“产、学、研、服”于一体的产业链体系，在基因检测、分子诊断等代表医学诊断未来趋势的尖端技术领域始终保持国内领先地位。我院已与加拿大多伦多大学、国际临床和实验室标准化协会（CLSI）等国外高校及机构达成战略合作协议，积极为学生搭建海外学习和研修平台。现设1个专业：医学检验技术。</t>
+  </si>
+  <si>
+    <t>中山大学南方学院商学院正式成立于2016年3月31日，是在整合原经济学与商务管理系、工商管理系和新设的房地产开发与管理系优势资源的基础上重组形成，实现了优势互补、学科融合，成为南方学院最重要的商科人才培养基地。 学院下设工商管理系、金融系、经济系、管理工程系四个系，设有金融工程、经济学、国际经济与贸易、国际商务、物流管理、电子商务、工商管理、市场营销、旅游管理等9个本科专业，2017年新增了金融学、互联网金融、2+2中美联合培养项目金融工程专业、3+1+1中日联合培养项目电子商务专业、3+1+1中日联合培养项目物流管理专业。其中包括省级重点特色学科1个（电子商务），省级综合试点改革专业1个（经济学），校级重点专业2个（经济学、工商管理），校级特色专业1个（旅游管理）。 商学院现有教职工107名，其中专职教师86名，包括教授7名（博士生导师2人）、副教授22名、讲师49名，其中博士24名（含台湾博士11名），拥有国际学术背景的教师40余名，全部教师具有硕士以上学历。教师队伍以年轻教师为主，40岁以下教师约占教师总数的70%，教师队伍年龄结构、学缘结构、职称结构合理。同时，学院聘有讲座教授4名，外聘珠江投资集团等著名企业家担任兼职教授10余人。 商学院致力于培养具有国际视野、创新思维、实践能力和创业意识的应用型、复合型商界精英，坚持以大开放、大交流、大合作促进大发展的改革和发展思路，在开放化、国际化、市场化、特色化办学方面进行了积极的探索。通过与香港交易所、伦敦金属交易所共同开展“国际资本市场前沿动态”精品证书课程等方式，实现专业与行业、理论与实践的完美融合，拓宽学生的视野；通过中国工商银行、中国移动、南方物流集团、广东省农垦集团进出口有限公司、广东省轻工进出口股份有限公司、浙商期货等大型企业建立稳定的实习合作关系,实现学生与岗位的无缝对接，近年来初次就业率高达95%以上；通过与美国新墨西哥大学、美国梅瑞迪斯大学、英国龙比亚大学、英国知山大学、英国斯旺西大学、英国赫尔大学、瑞士酒店管理学院、日本京都情报大学院大学、宾州印第安纳大学、威斯康星大学斯托特分校、菲尔莱狄更斯大学、中西州立大学等12所欧美日名校建立合作关系，实现国际化办学特色，拓展学生成长空间，自2011年以来累计输送数百名学生出国留学，并顺利取得学位。 近3年来，商学院教师立足广东省实际，充分发挥高校教师作为政府和企业等相关单位智库的作用，在诸多领域展开深入研究，主持了1项国家课题、29项省部级课题、2项市级课题和10项横向课题的研究工作。近三年来全院发表的高水平论文（SCI、SSCI、EI、CSSCI、TSSCI）总计为63篇。</t>
+  </si>
+  <si>
+    <t>为实现中山大学南方学院创建一流民办大学的目标，探索本科教育体制改革的新思路，政商研究院作为中山大学南方学院教育改革的试点单位，以创新人才培养机制为突破口，以“为政商界杰出人才的成长奠定坚实的起飞基础”为宗旨，将政商研究院打造成政商界精英人才培养的摇篮，培养基础宽厚，知识、能力、素质、精神俱佳优秀学生，造就具有深厚的人文底蕴、扎实专业知识、强烈创新意识、宽广国际视野、对学院具有极强归属感的卓越学生，为其成为社会精英奠定坚实的基础。 政商班的教师采取校内与校外相结合，人文学科、社会科学与自然科学相结合的师资构成模式，优选治学严谨、人格高尚、责任感强、国际视野、人文底蕴深厚、业务素质过硬的教师任教。 政商班采取专业基础教育与政商特色教育相结合的人才培养模式。课程体系包括所学专业核心课程及政商特色课程。学生在修完专业核心课程和政商特色课程学分之后，达到学校规定毕业条件和学士学位获取条件，获得所学专业的毕业证、学士学位证及政商班结业证。</t>
+  </si>
+  <si>
+    <t>校园地标之一</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时光隧道之尽头，第一眼见到的男人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>面朝别墅，春暖花开</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>别说了，拍就完事了</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>溜小孩的地方</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>必须不坐车地走一趟</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>艺术创想</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>悬梁刺股，灯火通明</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>牌坊，进出需预约登记</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>没门的南门</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地点描述</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新修</t>
+  </si>
+  <si>
+    <t>新修</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>从未修</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>最好的宿舍楼，没有之一</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>里面隐藏着什么秘密？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>天台风凉我好怕</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>征服过大山的人儿啊</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>见到11，12，15B上就对了</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>校巴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地点描述</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1352,8 +1486,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1384,6 +1531,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1402,7 +1555,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1469,9 +1622,6 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1516,6 +1666,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1797,10 +1977,10 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
+      <selection pane="bottomLeft" activeCell="D105" sqref="D105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="14" style="11" customWidth="1"/>
     <col min="2" max="2" width="24.77734375" customWidth="1"/>
@@ -1808,14 +1988,14 @@
     <col min="4" max="4" width="20.5546875" customWidth="1"/>
     <col min="5" max="5" width="12.88671875" customWidth="1"/>
     <col min="6" max="6" width="13.44140625" customWidth="1"/>
-    <col min="7" max="7" width="21.33203125" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" customWidth="1"/>
     <col min="8" max="8" width="19.88671875" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="39.6640625" customWidth="1"/>
-    <col min="14" max="14" width="48.109375" customWidth="1"/>
+    <col min="10" max="10" width="31.21875" customWidth="1"/>
+    <col min="14" max="14" width="8.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -1847,10 +2027,10 @@
         <v>9</v>
       </c>
       <c r="K1" s="18" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="L1" s="18" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="M1" s="18" t="s">
         <v>10</v>
@@ -1858,23 +2038,29 @@
       <c r="N1" s="18" t="s">
         <v>11</v>
       </c>
+      <c r="O1" s="18" t="s">
+        <v>388</v>
+      </c>
+      <c r="P1" s="18" t="s">
+        <v>389</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" s="1" customFormat="1" ht="14.4">
       <c r="A2" s="19" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>14</v>
+      <c r="D2" s="20" t="s">
+        <v>402</v>
       </c>
       <c r="E2" s="12"/>
-      <c r="F2" s="21">
-        <v>2</v>
+      <c r="F2" s="36">
+        <v>1</v>
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="12" t="s">
@@ -1883,11 +2069,11 @@
       <c r="I2" s="12">
         <v>2291779</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="23" t="s">
-        <v>385</v>
+      <c r="K2" s="22" t="s">
+        <v>383</v>
       </c>
       <c r="L2" s="12">
         <v>0</v>
@@ -1895,11 +2081,11 @@
       <c r="M2" s="12">
         <v>16</v>
       </c>
-      <c r="N2" s="24" t="s">
+      <c r="N2" s="23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" s="2" customFormat="1">
       <c r="A3" s="19" t="s">
         <v>12</v>
       </c>
@@ -1907,11 +2093,11 @@
         <v>18</v>
       </c>
       <c r="C3" s="13"/>
-      <c r="D3" s="12" t="s">
-        <v>14</v>
+      <c r="D3" s="20" t="s">
+        <v>404</v>
       </c>
       <c r="E3" s="13"/>
-      <c r="F3" s="13">
+      <c r="F3" s="34">
         <v>1</v>
       </c>
       <c r="G3" s="13"/>
@@ -1925,7 +2111,7 @@
       <c r="M3" s="13"/>
       <c r="N3" s="13"/>
     </row>
-    <row r="4" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" s="2" customFormat="1">
       <c r="A4" s="19" t="s">
         <v>12</v>
       </c>
@@ -1933,11 +2119,11 @@
         <v>20</v>
       </c>
       <c r="C4" s="13"/>
-      <c r="D4" s="12" t="s">
-        <v>14</v>
+      <c r="D4" s="20" t="s">
+        <v>403</v>
       </c>
       <c r="E4" s="13"/>
-      <c r="F4" s="13">
+      <c r="F4" s="34">
         <v>2</v>
       </c>
       <c r="G4" s="13"/>
@@ -1951,68 +2137,68 @@
       <c r="M4" s="13"/>
       <c r="N4" s="13"/>
     </row>
-    <row r="5" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" s="2" customFormat="1">
       <c r="A5" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>22</v>
+      <c r="B5" s="20" t="s">
+        <v>385</v>
       </c>
       <c r="C5" s="13"/>
-      <c r="D5" s="12" t="s">
-        <v>14</v>
+      <c r="D5" s="20" t="s">
+        <v>405</v>
       </c>
       <c r="E5" s="13"/>
-      <c r="F5" s="13">
-        <v>2</v>
+      <c r="F5" s="34">
+        <v>1</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
       <c r="J5" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
       <c r="M5" s="13"/>
       <c r="N5" s="13"/>
     </row>
-    <row r="6" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" s="2" customFormat="1">
       <c r="A6" s="19" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="13"/>
-      <c r="D6" s="12" t="s">
-        <v>14</v>
+      <c r="D6" s="20" t="s">
+        <v>401</v>
       </c>
       <c r="E6" s="13"/>
-      <c r="F6" s="13">
-        <v>3</v>
+      <c r="F6" s="34">
+        <v>2</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
       <c r="J6" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
       <c r="M6" s="13"/>
       <c r="N6" s="13"/>
     </row>
-    <row r="7" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" s="2" customFormat="1">
       <c r="A7" s="19" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C7" s="13"/>
-      <c r="D7" s="12" t="s">
-        <v>14</v>
+      <c r="D7" s="20" t="s">
+        <v>406</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
@@ -2020,23 +2206,23 @@
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
       <c r="J7" s="20" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
       <c r="M7" s="13"/>
       <c r="N7" s="13"/>
     </row>
-    <row r="8" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" s="2" customFormat="1">
       <c r="A8" s="19" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C8" s="13"/>
-      <c r="D8" s="12" t="s">
-        <v>14</v>
+      <c r="D8" s="20" t="s">
+        <v>407</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
@@ -2044,571 +2230,577 @@
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
       <c r="J8" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K8" s="13"/>
       <c r="L8" s="13"/>
       <c r="M8" s="13"/>
       <c r="N8" s="13"/>
     </row>
-    <row r="9" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" s="2" customFormat="1">
       <c r="A9" s="19" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="13"/>
-      <c r="D9" s="12" t="s">
-        <v>14</v>
+      <c r="D9" s="20" t="s">
+        <v>408</v>
       </c>
       <c r="E9" s="13"/>
-      <c r="F9" s="13">
-        <v>11</v>
+      <c r="F9" s="34">
+        <v>6</v>
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
       <c r="J9" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
       <c r="M9" s="13"/>
       <c r="N9" s="13"/>
     </row>
-    <row r="10" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
+    <row r="10" spans="1:16" ht="14.4">
+      <c r="A10" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="43" t="s">
+        <v>392</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="4">
-        <v>5</v>
+      <c r="F10" s="35">
+        <v>3</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K10" s="4"/>
       <c r="L10" s="4">
         <v>1</v>
       </c>
       <c r="M10" s="4"/>
-      <c r="N10" s="26" t="s">
+      <c r="N10" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="O10" s="38" t="s">
+        <v>387</v>
+      </c>
+      <c r="P10" s="37" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="35">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="4">
-        <v>1</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="H11" s="8" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
-        <v>29</v>
+    <row r="12" spans="1:16">
+      <c r="A12" s="24" t="s">
+        <v>28</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="4" t="s">
+      <c r="F12" s="35">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="4">
-        <v>1</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="H12" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
-        <v>29</v>
+    <row r="13" spans="1:16" ht="18" customHeight="1">
+      <c r="A13" s="24" t="s">
+        <v>28</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="42" t="s">
+        <v>396</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" s="4">
+      <c r="F13" s="35">
         <v>1</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
-        <v>29</v>
+    <row r="14" spans="1:16">
+      <c r="A14" s="24" t="s">
+        <v>28</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="D14" t="s">
+        <v>394</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="4" t="s">
+      <c r="F14" s="35">
+        <v>1</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="4">
-        <v>1</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="H14" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
-        <v>29</v>
+    <row r="15" spans="1:16" ht="409.6">
+      <c r="A15" s="24" t="s">
+        <v>28</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="D15" s="41" t="s">
+        <v>397</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="4" t="s">
+      <c r="F15" s="35">
+        <v>1</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="4">
-        <v>1</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="H15" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
-        <v>29</v>
+    <row r="16" spans="1:16">
+      <c r="A16" s="24" t="s">
+        <v>28</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="D16" t="s">
+        <v>398</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="4" t="s">
+      <c r="F16" s="35">
+        <v>1</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="F16" s="4">
-        <v>1</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
-        <v>29</v>
+    <row r="17" spans="1:14" ht="409.6">
+      <c r="A17" s="24" t="s">
+        <v>28</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="D17" s="41" t="s">
+        <v>399</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="4" t="s">
+      <c r="F17" s="35">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F17" s="4">
-        <v>1</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="H17" s="8" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
-        <v>29</v>
+    <row r="18" spans="1:14">
+      <c r="A18" s="24" t="s">
+        <v>28</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="D18" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="4" t="s">
+      <c r="F18" s="35">
+        <v>1</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="F18" s="4">
-        <v>1</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
-        <v>29</v>
+    <row r="19" spans="1:14">
+      <c r="A19" s="24" t="s">
+        <v>28</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E19" s="4"/>
-      <c r="F19" s="4">
-        <v>1</v>
+      <c r="F19" s="35">
+        <v>3</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
-        <v>29</v>
+    <row r="20" spans="1:14">
+      <c r="A20" s="24" t="s">
+        <v>28</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E20" s="4"/>
-      <c r="F20" s="4">
+      <c r="F20" s="35">
         <v>1</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
-        <v>29</v>
+    <row r="21" spans="1:14">
+      <c r="A21" s="24" t="s">
+        <v>28</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E21" s="4"/>
-      <c r="F21" s="4">
+      <c r="F21" s="35">
         <v>1</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="25" t="s">
-        <v>29</v>
+    <row r="22" spans="1:14">
+      <c r="A22" s="24" t="s">
+        <v>28</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E22" s="4"/>
-      <c r="F22" s="4">
+      <c r="F22" s="35">
         <v>1</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="25" t="s">
-        <v>29</v>
+    <row r="23" spans="1:14">
+      <c r="A23" s="24" t="s">
+        <v>28</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E23" s="4"/>
-      <c r="F23" s="4">
+      <c r="F23" s="35">
         <v>1</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="25" t="s">
-        <v>29</v>
+    <row r="24" spans="1:14">
+      <c r="A24" s="24" t="s">
+        <v>28</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E24" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F24" s="35">
+        <v>1</v>
+      </c>
+      <c r="G24" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="F24" s="4">
-        <v>1</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="25" t="s">
-        <v>29</v>
+    <row r="25" spans="1:14">
+      <c r="A25" s="24" t="s">
+        <v>28</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E25" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F25" s="35">
+        <v>1</v>
+      </c>
+      <c r="G25" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="F25" s="4">
-        <v>1</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
     </row>
-    <row r="26" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A26" s="27" t="s">
+    <row r="26" spans="1:14" ht="14.4">
+      <c r="A26" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="C26" s="14" t="s">
         <v>100</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>101</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E26" s="14"/>
-      <c r="F26" s="14">
+      <c r="F26" s="35">
         <v>1</v>
       </c>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
       <c r="J26" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K26" s="14"/>
       <c r="L26" s="14">
@@ -2617,19 +2809,19 @@
       <c r="M26" s="14">
         <v>15</v>
       </c>
-      <c r="N26" s="24" t="s">
+      <c r="N26" s="23" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" s="14" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="B27" s="14" t="s">
+      <c r="C27" s="14" t="s">
         <v>104</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>105</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>14</v>
@@ -2640,22 +2832,22 @@
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
       <c r="J27" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K27" s="14"/>
       <c r="L27" s="14"/>
       <c r="M27" s="14"/>
       <c r="N27" s="14"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="27" t="s">
-        <v>99</v>
+    <row r="28" spans="1:14">
+      <c r="A28" s="26" t="s">
+        <v>98</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D28" s="12" t="s">
         <v>14</v>
@@ -2666,229 +2858,227 @@
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
       <c r="J28" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K28" s="14"/>
       <c r="L28" s="14"/>
       <c r="M28" s="14"/>
       <c r="N28" s="14"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="27" t="s">
-        <v>99</v>
+    <row r="29" spans="1:14">
+      <c r="A29" s="26" t="s">
+        <v>98</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D29" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E29" s="14"/>
-      <c r="F29" s="14">
+      <c r="F29" s="35">
         <v>1</v>
       </c>
       <c r="G29" s="14"/>
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
       <c r="J29" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K29" s="14"/>
       <c r="L29" s="14"/>
       <c r="M29" s="14"/>
       <c r="N29" s="14"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="27" t="s">
-        <v>99</v>
+    <row r="30" spans="1:14">
+      <c r="A30" s="26" t="s">
+        <v>98</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D30" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E30" s="14"/>
-      <c r="F30" s="14">
+      <c r="F30" s="35">
         <v>1</v>
       </c>
       <c r="G30" s="14"/>
       <c r="H30" s="14"/>
       <c r="I30" s="14"/>
       <c r="J30" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K30" s="14"/>
       <c r="L30" s="14"/>
       <c r="M30" s="14"/>
       <c r="N30" s="14"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="27" t="s">
-        <v>99</v>
+    <row r="31" spans="1:14">
+      <c r="A31" s="26" t="s">
+        <v>98</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E31" s="14"/>
-      <c r="F31" s="14">
-        <v>1</v>
-      </c>
+      <c r="F31" s="14"/>
       <c r="G31" s="14"/>
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
       <c r="J31" s="15" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="K31" s="14"/>
       <c r="L31" s="14"/>
       <c r="M31" s="14"/>
       <c r="N31" s="14"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="27" t="s">
-        <v>99</v>
+    <row r="32" spans="1:14">
+      <c r="A32" s="26" t="s">
+        <v>98</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C32" s="14"/>
       <c r="D32" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E32" s="14"/>
-      <c r="F32" s="14">
+      <c r="F32" s="35">
         <v>1</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
       <c r="J32" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K32" s="14"/>
       <c r="L32" s="14"/>
       <c r="M32" s="14"/>
       <c r="N32" s="14"/>
     </row>
-    <row r="33" spans="1:14 2845:16383" x14ac:dyDescent="0.25">
-      <c r="A33" s="27" t="s">
-        <v>99</v>
+    <row r="33" spans="1:14 2845:16383">
+      <c r="A33" s="26" t="s">
+        <v>98</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>117</v>
+        <v>115</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>386</v>
       </c>
       <c r="D33" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E33" s="14"/>
-      <c r="F33" s="14">
+      <c r="F33" s="35">
         <v>2</v>
       </c>
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
       <c r="I33" s="14"/>
       <c r="J33" s="14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K33" s="14"/>
       <c r="L33" s="14"/>
       <c r="M33" s="14"/>
       <c r="N33" s="14"/>
     </row>
-    <row r="34" spans="1:14 2845:16383" x14ac:dyDescent="0.25">
-      <c r="A34" s="27" t="s">
-        <v>99</v>
+    <row r="34" spans="1:14 2845:16383">
+      <c r="A34" s="26" t="s">
+        <v>98</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D34" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E34" s="14"/>
-      <c r="F34" s="14">
+      <c r="F34" s="35">
         <v>1</v>
       </c>
       <c r="G34" s="14"/>
       <c r="H34" s="14"/>
       <c r="I34" s="14"/>
       <c r="J34" s="14" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K34" s="14"/>
       <c r="L34" s="14"/>
       <c r="M34" s="14"/>
       <c r="N34" s="14"/>
     </row>
-    <row r="35" spans="1:14 2845:16383" x14ac:dyDescent="0.25">
-      <c r="A35" s="27" t="s">
-        <v>99</v>
+    <row r="35" spans="1:14 2845:16383">
+      <c r="A35" s="26" t="s">
+        <v>98</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C35" s="14"/>
       <c r="D35" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E35" s="14"/>
-      <c r="F35" s="14">
+      <c r="F35" s="35">
         <v>2</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H35" s="14"/>
       <c r="I35" s="14"/>
       <c r="J35" s="14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K35" s="14"/>
       <c r="L35" s="14"/>
       <c r="M35" s="14"/>
       <c r="N35" s="14"/>
     </row>
-    <row r="36" spans="1:14 2845:16383" x14ac:dyDescent="0.25">
-      <c r="A36" s="28" t="s">
-        <v>99</v>
+    <row r="36" spans="1:14 2845:16383">
+      <c r="A36" s="27" t="s">
+        <v>98</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D36" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E36" s="14"/>
-      <c r="F36" s="14">
-        <v>1</v>
+      <c r="F36" s="35">
+        <v>2</v>
       </c>
       <c r="G36" s="14"/>
       <c r="H36" s="14"/>
       <c r="I36" s="14"/>
       <c r="J36" s="14" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K36" s="14"/>
       <c r="L36" s="14"/>
@@ -16434,15 +16624,15 @@
       <c r="XFB36" s="3"/>
       <c r="XFC36" s="3"/>
     </row>
-    <row r="37" spans="1:14 2845:16383" x14ac:dyDescent="0.25">
-      <c r="A37" s="28" t="s">
-        <v>99</v>
+    <row r="37" spans="1:14 2845:16383">
+      <c r="A37" s="27" t="s">
+        <v>98</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D37" s="12" t="s">
         <v>14</v>
@@ -16453,7 +16643,7 @@
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
       <c r="J37" s="14" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K37" s="14"/>
       <c r="L37" s="14"/>
@@ -29999,28 +30189,28 @@
       <c r="XFB37" s="3"/>
       <c r="XFC37" s="3"/>
     </row>
-    <row r="38" spans="1:14 2845:16383" x14ac:dyDescent="0.25">
-      <c r="A38" s="28" t="s">
-        <v>99</v>
+    <row r="38" spans="1:14 2845:16383">
+      <c r="A38" s="27" t="s">
+        <v>98</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C38" s="16"/>
       <c r="D38" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E38" s="14"/>
-      <c r="F38" s="14">
+      <c r="F38" s="35">
         <v>1</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
       <c r="J38" s="14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K38" s="14"/>
       <c r="L38" s="14"/>
@@ -43566,28 +43756,28 @@
       <c r="XFB38" s="3"/>
       <c r="XFC38" s="3"/>
     </row>
-    <row r="39" spans="1:14 2845:16383" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A39" s="25" t="s">
-        <v>129</v>
+    <row r="39" spans="1:14 2845:16383" ht="14.4">
+      <c r="A39" s="24" t="s">
+        <v>127</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>14</v>
+        <v>128</v>
+      </c>
+      <c r="D39" s="43" t="s">
+        <v>409</v>
       </c>
       <c r="E39" s="4"/>
-      <c r="F39" s="4">
-        <v>2</v>
+      <c r="F39" s="35">
+        <v>1</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K39" s="4"/>
       <c r="L39" s="4">
@@ -43596,20 +43786,20 @@
       <c r="M39" s="4">
         <v>15</v>
       </c>
-      <c r="N39" s="26" t="s">
-        <v>132</v>
+      <c r="N39" s="25" t="s">
+        <v>130</v>
       </c>
     </row>
-    <row r="40" spans="1:14 2845:16383" x14ac:dyDescent="0.25">
-      <c r="A40" s="25" t="s">
-        <v>129</v>
+    <row r="40" spans="1:14 2845:16383">
+      <c r="A40" s="24" t="s">
+        <v>127</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C40" s="4"/>
-      <c r="D40" s="6" t="s">
-        <v>14</v>
+      <c r="D40" s="43" t="s">
+        <v>410</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
@@ -43617,39 +43807,39 @@
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
     </row>
-    <row r="41" spans="1:14 2845:16383" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A41" s="27" t="s">
+    <row r="41" spans="1:14 2845:16383" ht="14.4">
+      <c r="A41" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="C41" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="D41" s="20" t="s">
+        <v>411</v>
+      </c>
+      <c r="E41" s="14"/>
+      <c r="F41" s="35">
+        <v>1</v>
+      </c>
+      <c r="G41" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="C41" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14">
-        <v>1</v>
-      </c>
-      <c r="G41" s="14" t="s">
-        <v>138</v>
-      </c>
       <c r="H41" s="15" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I41" s="14"/>
       <c r="J41" s="14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K41" s="14"/>
       <c r="L41" s="14">
@@ -43658,62 +43848,62 @@
       <c r="M41" s="14">
         <v>17</v>
       </c>
-      <c r="N41" s="24" t="s">
+      <c r="N41" s="23" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14 2845:16383">
+      <c r="A42" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="C42" s="14" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14 2845:16383" x14ac:dyDescent="0.25">
-      <c r="A42" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="B42" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>142</v>
       </c>
       <c r="D42" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E42" s="14"/>
-      <c r="F42" s="14">
+      <c r="F42" s="35">
         <v>1</v>
       </c>
       <c r="G42" s="14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H42" s="14"/>
       <c r="I42" s="14"/>
       <c r="J42" s="14" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K42" s="14"/>
       <c r="L42" s="14"/>
       <c r="M42" s="14"/>
       <c r="N42" s="14"/>
     </row>
-    <row r="43" spans="1:14 2845:16383" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A43" s="25" t="s">
+    <row r="43" spans="1:14 2845:16383" ht="14.4">
+      <c r="A43" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>14</v>
+      <c r="D43" s="43" t="s">
+        <v>414</v>
       </c>
       <c r="E43" s="7"/>
-      <c r="F43" s="7">
+      <c r="F43" s="34">
         <v>2</v>
       </c>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
       <c r="J43" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K43" s="4"/>
       <c r="L43" s="4">
@@ -43722,88 +43912,88 @@
       <c r="M43" s="4">
         <v>17</v>
       </c>
-      <c r="N43" s="26" t="s">
+      <c r="N43" s="25" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14 2845:16383">
+      <c r="A44" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="44" spans="1:14 2845:16383" x14ac:dyDescent="0.25">
-      <c r="A44" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>14</v>
+      <c r="D44" s="43" t="s">
+        <v>413</v>
       </c>
       <c r="E44" s="7"/>
-      <c r="F44" s="7">
-        <v>9</v>
+      <c r="F44" s="34">
+        <v>5</v>
       </c>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
       <c r="J44" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
       <c r="M44" s="4"/>
       <c r="N44" s="4"/>
     </row>
-    <row r="45" spans="1:14 2845:16383" x14ac:dyDescent="0.25">
-      <c r="A45" s="25" t="s">
-        <v>145</v>
+    <row r="45" spans="1:14 2845:16383">
+      <c r="A45" s="24" t="s">
+        <v>143</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>14</v>
+        <v>412</v>
       </c>
       <c r="E45" s="7"/>
-      <c r="F45" s="7">
+      <c r="F45" s="34">
         <v>1</v>
       </c>
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
       <c r="J45" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>
     </row>
-    <row r="46" spans="1:14 2845:16383" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A46" s="29" t="s">
-        <v>361</v>
+    <row r="46" spans="1:14 2845:16383" ht="14.4">
+      <c r="A46" s="28" t="s">
+        <v>359</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D46" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E46" s="14"/>
-      <c r="F46" s="14">
+      <c r="F46" s="35">
         <v>1</v>
       </c>
       <c r="G46" s="14"/>
       <c r="H46" s="14"/>
       <c r="I46" s="14"/>
       <c r="J46" s="14" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K46" s="14"/>
       <c r="L46" s="14">
@@ -43812,1322 +44002,1322 @@
       <c r="M46" s="14">
         <v>16</v>
       </c>
-      <c r="N46" s="24" t="s">
-        <v>157</v>
+      <c r="N46" s="23" t="s">
+        <v>155</v>
       </c>
     </row>
-    <row r="47" spans="1:14 2845:16383" x14ac:dyDescent="0.25">
-      <c r="A47" s="29" t="s">
-        <v>361</v>
+    <row r="47" spans="1:14 2845:16383">
+      <c r="A47" s="28" t="s">
+        <v>359</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D47" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E47" s="14"/>
-      <c r="F47" s="14">
+      <c r="F47" s="35">
         <v>1</v>
       </c>
       <c r="G47" s="14"/>
       <c r="H47" s="14"/>
       <c r="I47" s="14"/>
       <c r="J47" s="14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K47" s="14"/>
       <c r="L47" s="14"/>
       <c r="M47" s="14"/>
       <c r="N47" s="14"/>
     </row>
-    <row r="48" spans="1:14 2845:16383" x14ac:dyDescent="0.25">
-      <c r="A48" s="29" t="s">
-        <v>361</v>
+    <row r="48" spans="1:14 2845:16383">
+      <c r="A48" s="28" t="s">
+        <v>359</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D48" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E48" s="14"/>
-      <c r="F48" s="14">
+      <c r="F48" s="35">
         <v>1</v>
       </c>
       <c r="G48" s="14"/>
       <c r="H48" s="14"/>
       <c r="I48" s="14"/>
       <c r="J48" s="14" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K48" s="14"/>
       <c r="L48" s="14"/>
       <c r="M48" s="14"/>
       <c r="N48" s="14"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="29" t="s">
-        <v>361</v>
+    <row r="49" spans="1:14">
+      <c r="A49" s="28" t="s">
+        <v>359</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D49" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E49" s="14"/>
-      <c r="F49" s="14">
+      <c r="F49" s="35">
         <v>1</v>
       </c>
       <c r="G49" s="14"/>
       <c r="H49" s="14"/>
       <c r="I49" s="14"/>
       <c r="J49" s="14" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K49" s="14"/>
       <c r="L49" s="14"/>
       <c r="M49" s="14"/>
       <c r="N49" s="14"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="29" t="s">
-        <v>361</v>
+    <row r="50" spans="1:14">
+      <c r="A50" s="28" t="s">
+        <v>359</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D50" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E50" s="14"/>
-      <c r="F50" s="14">
+      <c r="F50" s="35">
         <v>1</v>
       </c>
       <c r="G50" s="14"/>
       <c r="H50" s="14"/>
       <c r="I50" s="14"/>
       <c r="J50" s="14" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K50" s="14"/>
       <c r="L50" s="14"/>
       <c r="M50" s="14"/>
       <c r="N50" s="14"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="29" t="s">
-        <v>361</v>
+    <row r="51" spans="1:14">
+      <c r="A51" s="28" t="s">
+        <v>359</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D51" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E51" s="14"/>
-      <c r="F51" s="14">
+      <c r="F51" s="35">
         <v>1</v>
       </c>
       <c r="G51" s="14"/>
       <c r="H51" s="14"/>
       <c r="I51" s="14"/>
       <c r="J51" s="14" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K51" s="14"/>
       <c r="L51" s="14"/>
       <c r="M51" s="14"/>
       <c r="N51" s="14"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="29" t="s">
-        <v>361</v>
+    <row r="52" spans="1:14">
+      <c r="A52" s="28" t="s">
+        <v>359</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D52" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E52" s="14"/>
-      <c r="F52" s="14">
+      <c r="F52" s="35">
         <v>1</v>
       </c>
       <c r="G52" s="14"/>
       <c r="H52" s="14"/>
       <c r="I52" s="14"/>
       <c r="J52" s="14" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K52" s="14"/>
       <c r="L52" s="14"/>
       <c r="M52" s="14"/>
       <c r="N52" s="14"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="29" t="s">
-        <v>361</v>
+    <row r="53" spans="1:14">
+      <c r="A53" s="28" t="s">
+        <v>359</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D53" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E53" s="14"/>
-      <c r="F53" s="14">
+      <c r="F53" s="35">
         <v>1</v>
       </c>
       <c r="G53" s="14"/>
       <c r="H53" s="14"/>
       <c r="I53" s="14"/>
       <c r="J53" s="14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K53" s="14"/>
       <c r="L53" s="14"/>
       <c r="M53" s="14"/>
       <c r="N53" s="14"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="29" t="s">
-        <v>361</v>
+    <row r="54" spans="1:14">
+      <c r="A54" s="28" t="s">
+        <v>359</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D54" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E54" s="14"/>
-      <c r="F54" s="14">
+      <c r="F54" s="35">
         <v>1</v>
       </c>
       <c r="G54" s="14"/>
       <c r="H54" s="14"/>
       <c r="I54" s="14"/>
       <c r="J54" s="14" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K54" s="14"/>
       <c r="L54" s="14"/>
       <c r="M54" s="14"/>
       <c r="N54" s="14"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="29" t="s">
-        <v>361</v>
+    <row r="55" spans="1:14">
+      <c r="A55" s="28" t="s">
+        <v>359</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D55" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E55" s="14"/>
-      <c r="F55" s="14">
+      <c r="F55" s="35">
         <v>1</v>
       </c>
       <c r="G55" s="14"/>
       <c r="H55" s="14"/>
       <c r="I55" s="14"/>
       <c r="J55" s="14" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K55" s="14"/>
       <c r="L55" s="14"/>
       <c r="M55" s="14"/>
       <c r="N55" s="14"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="29" t="s">
-        <v>361</v>
+    <row r="56" spans="1:14">
+      <c r="A56" s="28" t="s">
+        <v>359</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D56" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E56" s="14"/>
-      <c r="F56" s="14">
+      <c r="F56" s="35">
         <v>1</v>
       </c>
       <c r="G56" s="14"/>
       <c r="H56" s="14"/>
       <c r="I56" s="14"/>
       <c r="J56" s="14" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K56" s="14"/>
       <c r="L56" s="14"/>
       <c r="M56" s="14"/>
       <c r="N56" s="14"/>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="29" t="s">
-        <v>361</v>
+    <row r="57" spans="1:14">
+      <c r="A57" s="28" t="s">
+        <v>359</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D57" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E57" s="14"/>
-      <c r="F57" s="14">
+      <c r="F57" s="35">
         <v>1</v>
       </c>
       <c r="G57" s="14"/>
       <c r="H57" s="14"/>
       <c r="I57" s="14"/>
       <c r="J57" s="14" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K57" s="14"/>
       <c r="L57" s="14"/>
       <c r="M57" s="14"/>
       <c r="N57" s="14"/>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="29" t="s">
-        <v>361</v>
+    <row r="58" spans="1:14">
+      <c r="A58" s="28" t="s">
+        <v>359</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D58" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E58" s="14"/>
-      <c r="F58" s="14">
+      <c r="F58" s="35">
         <v>1</v>
       </c>
       <c r="G58" s="14"/>
       <c r="H58" s="14"/>
       <c r="I58" s="14"/>
       <c r="J58" s="14" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K58" s="14"/>
       <c r="L58" s="14"/>
       <c r="M58" s="14"/>
       <c r="N58" s="14"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="29" t="s">
-        <v>361</v>
+    <row r="59" spans="1:14">
+      <c r="A59" s="28" t="s">
+        <v>359</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D59" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E59" s="14"/>
-      <c r="F59" s="14">
+      <c r="F59" s="35">
         <v>1</v>
       </c>
       <c r="G59" s="14"/>
       <c r="H59" s="14"/>
       <c r="I59" s="14"/>
       <c r="J59" s="14" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K59" s="14"/>
       <c r="L59" s="14"/>
       <c r="M59" s="14"/>
       <c r="N59" s="14"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="29" t="s">
-        <v>361</v>
+    <row r="60" spans="1:14">
+      <c r="A60" s="28" t="s">
+        <v>359</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D60" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E60" s="14"/>
-      <c r="F60" s="14">
+      <c r="F60" s="35">
         <v>1</v>
       </c>
       <c r="G60" s="14"/>
       <c r="H60" s="14"/>
       <c r="I60" s="14"/>
       <c r="J60" s="14" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K60" s="14"/>
       <c r="L60" s="14"/>
       <c r="M60" s="14"/>
       <c r="N60" s="14"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="29" t="s">
-        <v>361</v>
+    <row r="61" spans="1:14">
+      <c r="A61" s="28" t="s">
+        <v>359</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D61" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E61" s="14"/>
-      <c r="F61" s="14">
+      <c r="F61" s="35">
         <v>1</v>
       </c>
       <c r="G61" s="14"/>
       <c r="H61" s="14"/>
       <c r="I61" s="14"/>
       <c r="J61" s="14" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K61" s="14"/>
       <c r="L61" s="14"/>
       <c r="M61" s="14"/>
       <c r="N61" s="14"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="29" t="s">
-        <v>361</v>
+    <row r="62" spans="1:14">
+      <c r="A62" s="28" t="s">
+        <v>359</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D62" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E62" s="14"/>
-      <c r="F62" s="14">
+      <c r="F62" s="35">
         <v>1</v>
       </c>
       <c r="G62" s="14"/>
       <c r="H62" s="14"/>
       <c r="I62" s="14"/>
       <c r="J62" s="14" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K62" s="14"/>
       <c r="L62" s="14"/>
       <c r="M62" s="14"/>
       <c r="N62" s="14"/>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="29" t="s">
-        <v>361</v>
+    <row r="63" spans="1:14">
+      <c r="A63" s="28" t="s">
+        <v>359</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D63" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E63" s="14"/>
-      <c r="F63" s="14">
+      <c r="F63" s="35">
         <v>1</v>
       </c>
       <c r="G63" s="14"/>
       <c r="H63" s="14"/>
       <c r="I63" s="14"/>
       <c r="J63" s="14" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K63" s="14"/>
       <c r="L63" s="14"/>
       <c r="M63" s="14"/>
       <c r="N63" s="14"/>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="29" t="s">
-        <v>361</v>
+    <row r="64" spans="1:14">
+      <c r="A64" s="28" t="s">
+        <v>359</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D64" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E64" s="14"/>
-      <c r="F64" s="14">
+      <c r="F64" s="35">
         <v>1</v>
       </c>
       <c r="G64" s="14"/>
       <c r="H64" s="14"/>
       <c r="I64" s="14"/>
       <c r="J64" s="14" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K64" s="14"/>
       <c r="L64" s="14"/>
       <c r="M64" s="14"/>
       <c r="N64" s="14"/>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A65" s="29" t="s">
-        <v>361</v>
+    <row r="65" spans="1:14">
+      <c r="A65" s="28" t="s">
+        <v>359</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D65" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E65" s="14"/>
-      <c r="F65" s="14">
+      <c r="F65" s="35">
         <v>1</v>
       </c>
       <c r="G65" s="14"/>
       <c r="H65" s="14"/>
       <c r="I65" s="14"/>
       <c r="J65" s="14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K65" s="14"/>
       <c r="L65" s="14"/>
       <c r="M65" s="14"/>
       <c r="N65" s="14"/>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A66" s="29" t="s">
-        <v>361</v>
+    <row r="66" spans="1:14">
+      <c r="A66" s="28" t="s">
+        <v>359</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D66" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E66" s="14"/>
-      <c r="F66" s="14">
+      <c r="F66" s="35">
         <v>1</v>
       </c>
       <c r="G66" s="14"/>
       <c r="H66" s="14"/>
       <c r="I66" s="14"/>
       <c r="J66" s="14" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K66" s="14"/>
       <c r="L66" s="14"/>
       <c r="M66" s="14"/>
       <c r="N66" s="14"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A67" s="29" t="s">
-        <v>361</v>
+    <row r="67" spans="1:14">
+      <c r="A67" s="28" t="s">
+        <v>359</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D67" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E67" s="14"/>
-      <c r="F67" s="14">
+      <c r="F67" s="35">
         <v>1</v>
       </c>
       <c r="G67" s="14"/>
       <c r="H67" s="14"/>
       <c r="I67" s="14"/>
       <c r="J67" s="14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K67" s="14"/>
       <c r="L67" s="14"/>
       <c r="M67" s="14"/>
       <c r="N67" s="14"/>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A68" s="29" t="s">
-        <v>361</v>
+    <row r="68" spans="1:14">
+      <c r="A68" s="28" t="s">
+        <v>359</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D68" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E68" s="14"/>
-      <c r="F68" s="14">
+      <c r="F68" s="35">
         <v>1</v>
       </c>
       <c r="G68" s="14"/>
       <c r="H68" s="14"/>
       <c r="I68" s="14"/>
       <c r="J68" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K68" s="14"/>
       <c r="L68" s="14"/>
       <c r="M68" s="14"/>
       <c r="N68" s="14"/>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A69" s="29" t="s">
-        <v>361</v>
+    <row r="69" spans="1:14">
+      <c r="A69" s="28" t="s">
+        <v>359</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D69" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E69" s="14"/>
-      <c r="F69" s="14">
+      <c r="F69" s="35">
         <v>1</v>
       </c>
       <c r="G69" s="14"/>
       <c r="H69" s="14"/>
       <c r="I69" s="14"/>
       <c r="J69" s="14" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K69" s="14"/>
       <c r="L69" s="14"/>
       <c r="M69" s="14"/>
       <c r="N69" s="14"/>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A70" s="29" t="s">
-        <v>361</v>
+    <row r="70" spans="1:14">
+      <c r="A70" s="28" t="s">
+        <v>359</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D70" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E70" s="14"/>
-      <c r="F70" s="14">
+      <c r="F70" s="35">
         <v>1</v>
       </c>
       <c r="G70" s="14"/>
       <c r="H70" s="14"/>
       <c r="I70" s="14"/>
       <c r="J70" s="14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K70" s="14"/>
       <c r="L70" s="14"/>
       <c r="M70" s="14"/>
       <c r="N70" s="14"/>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A71" s="29" t="s">
-        <v>361</v>
+    <row r="71" spans="1:14">
+      <c r="A71" s="28" t="s">
+        <v>359</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D71" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E71" s="14"/>
-      <c r="F71" s="14">
+      <c r="F71" s="35">
         <v>1</v>
       </c>
       <c r="G71" s="14"/>
       <c r="H71" s="14"/>
       <c r="I71" s="14"/>
       <c r="J71" s="14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K71" s="14"/>
       <c r="L71" s="14"/>
       <c r="M71" s="14"/>
       <c r="N71" s="14"/>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A72" s="29" t="s">
-        <v>361</v>
+    <row r="72" spans="1:14">
+      <c r="A72" s="28" t="s">
+        <v>359</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D72" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E72" s="14"/>
-      <c r="F72" s="14">
+      <c r="F72" s="35">
         <v>1</v>
       </c>
       <c r="G72" s="14"/>
       <c r="H72" s="14"/>
       <c r="I72" s="14"/>
       <c r="J72" s="14" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K72" s="14"/>
       <c r="L72" s="14"/>
       <c r="M72" s="14"/>
       <c r="N72" s="14"/>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A73" s="29" t="s">
-        <v>361</v>
+    <row r="73" spans="1:14">
+      <c r="A73" s="28" t="s">
+        <v>359</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D73" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E73" s="14"/>
-      <c r="F73" s="14">
+      <c r="F73" s="35">
         <v>1</v>
       </c>
       <c r="G73" s="14"/>
       <c r="H73" s="14"/>
       <c r="I73" s="14"/>
       <c r="J73" s="14" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K73" s="14"/>
       <c r="L73" s="14"/>
       <c r="M73" s="14"/>
       <c r="N73" s="14"/>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A74" s="29" t="s">
-        <v>361</v>
+    <row r="74" spans="1:14">
+      <c r="A74" s="28" t="s">
+        <v>359</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D74" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E74" s="14"/>
-      <c r="F74" s="14">
+      <c r="F74" s="35">
         <v>1</v>
       </c>
       <c r="G74" s="14"/>
       <c r="H74" s="14"/>
       <c r="I74" s="14"/>
       <c r="J74" s="14" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K74" s="14"/>
       <c r="L74" s="14"/>
       <c r="M74" s="14"/>
       <c r="N74" s="14"/>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A75" s="29" t="s">
-        <v>361</v>
+    <row r="75" spans="1:14">
+      <c r="A75" s="28" t="s">
+        <v>359</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D75" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E75" s="14"/>
-      <c r="F75" s="14">
+      <c r="F75" s="35">
         <v>1</v>
       </c>
       <c r="G75" s="14"/>
       <c r="H75" s="14"/>
       <c r="I75" s="14"/>
       <c r="J75" s="14" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K75" s="14"/>
       <c r="L75" s="14"/>
       <c r="M75" s="14"/>
       <c r="N75" s="14"/>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A76" s="29" t="s">
-        <v>361</v>
+    <row r="76" spans="1:14">
+      <c r="A76" s="28" t="s">
+        <v>359</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D76" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E76" s="14"/>
-      <c r="F76" s="14">
+      <c r="F76" s="35">
         <v>1</v>
       </c>
       <c r="G76" s="14"/>
       <c r="H76" s="14"/>
       <c r="I76" s="14"/>
       <c r="J76" s="14" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K76" s="14"/>
       <c r="L76" s="14"/>
       <c r="M76" s="14"/>
       <c r="N76" s="14"/>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A77" s="29" t="s">
-        <v>361</v>
+    <row r="77" spans="1:14">
+      <c r="A77" s="28" t="s">
+        <v>359</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D77" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E77" s="14"/>
-      <c r="F77" s="14">
+      <c r="F77" s="35">
         <v>1</v>
       </c>
       <c r="G77" s="14"/>
       <c r="H77" s="14"/>
       <c r="I77" s="14"/>
       <c r="J77" s="14" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K77" s="14"/>
       <c r="L77" s="14"/>
       <c r="M77" s="14"/>
       <c r="N77" s="14"/>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A78" s="29" t="s">
-        <v>361</v>
+    <row r="78" spans="1:14">
+      <c r="A78" s="28" t="s">
+        <v>359</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D78" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E78" s="14"/>
-      <c r="F78" s="14">
+      <c r="F78" s="35">
         <v>1</v>
       </c>
       <c r="G78" s="14"/>
       <c r="H78" s="14"/>
       <c r="I78" s="14"/>
       <c r="J78" s="14" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K78" s="14"/>
       <c r="L78" s="14"/>
       <c r="M78" s="14"/>
       <c r="N78" s="14"/>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A79" s="29" t="s">
-        <v>361</v>
+    <row r="79" spans="1:14">
+      <c r="A79" s="28" t="s">
+        <v>359</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D79" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E79" s="14"/>
-      <c r="F79" s="14">
+      <c r="F79" s="35">
         <v>1</v>
       </c>
       <c r="G79" s="14"/>
       <c r="H79" s="14"/>
       <c r="I79" s="14"/>
       <c r="J79" s="14" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K79" s="14"/>
       <c r="L79" s="14"/>
       <c r="M79" s="14"/>
       <c r="N79" s="14"/>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A80" s="29" t="s">
-        <v>361</v>
+    <row r="80" spans="1:14">
+      <c r="A80" s="28" t="s">
+        <v>359</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="D80" s="12" t="s">
-        <v>14</v>
+        <v>222</v>
+      </c>
+      <c r="D80" s="20" t="s">
+        <v>415</v>
       </c>
       <c r="E80" s="14"/>
-      <c r="F80" s="14">
+      <c r="F80" s="35">
         <v>1</v>
       </c>
       <c r="G80" s="14"/>
       <c r="H80" s="14"/>
       <c r="I80" s="14"/>
       <c r="J80" s="14" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K80" s="14"/>
       <c r="L80" s="14"/>
       <c r="M80" s="14"/>
       <c r="N80" s="14"/>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A81" s="30" t="s">
-        <v>362</v>
+    <row r="81" spans="1:14">
+      <c r="A81" s="29" t="s">
+        <v>360</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D81" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E81" s="6"/>
-      <c r="F81" s="4">
+      <c r="F81" s="35">
         <v>1</v>
       </c>
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
       <c r="J81" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K81" s="4"/>
       <c r="L81" s="4">
         <v>7</v>
       </c>
       <c r="M81" s="4"/>
-      <c r="N81" s="31" t="s">
-        <v>365</v>
+      <c r="N81" s="30" t="s">
+        <v>363</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A82" s="30" t="s">
-        <v>362</v>
+    <row r="82" spans="1:14">
+      <c r="A82" s="29" t="s">
+        <v>360</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D82" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E82" s="6"/>
-      <c r="F82" s="4">
+      <c r="F82" s="35">
         <v>1</v>
       </c>
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
       <c r="J82" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K82" s="4"/>
       <c r="L82" s="4"/>
       <c r="M82" s="4"/>
       <c r="N82" s="4"/>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A83" s="30" t="s">
-        <v>362</v>
+    <row r="83" spans="1:14">
+      <c r="A83" s="29" t="s">
+        <v>360</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D83" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E83" s="6"/>
-      <c r="F83" s="4">
+      <c r="F83" s="35">
         <v>1</v>
       </c>
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
       <c r="J83" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K83" s="4"/>
       <c r="L83" s="4"/>
       <c r="M83" s="4"/>
       <c r="N83" s="4"/>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A84" s="30" t="s">
-        <v>362</v>
+    <row r="84" spans="1:14">
+      <c r="A84" s="29" t="s">
+        <v>360</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D84" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E84" s="6"/>
-      <c r="F84" s="4">
+      <c r="F84" s="35">
         <v>1</v>
       </c>
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
       <c r="J84" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K84" s="4"/>
       <c r="L84" s="4"/>
       <c r="M84" s="4"/>
       <c r="N84" s="4"/>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A85" s="30" t="s">
-        <v>362</v>
+    <row r="85" spans="1:14">
+      <c r="A85" s="29" t="s">
+        <v>360</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D85" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E85" s="6"/>
-      <c r="F85" s="4">
+      <c r="F85" s="35">
         <v>1</v>
       </c>
       <c r="G85" s="4"/>
       <c r="H85" s="4"/>
       <c r="I85" s="4"/>
       <c r="J85" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K85" s="4"/>
       <c r="L85" s="4"/>
       <c r="M85" s="4"/>
       <c r="N85" s="4"/>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A86" s="30" t="s">
-        <v>362</v>
+    <row r="86" spans="1:14">
+      <c r="A86" s="29" t="s">
+        <v>360</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D86" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E86" s="6"/>
-      <c r="F86" s="4">
+      <c r="F86" s="35">
         <v>1</v>
       </c>
       <c r="G86" s="4"/>
       <c r="H86" s="4"/>
       <c r="I86" s="4"/>
       <c r="J86" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K86" s="4"/>
       <c r="L86" s="4"/>
       <c r="M86" s="4"/>
       <c r="N86" s="4"/>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A87" s="30" t="s">
-        <v>362</v>
+    <row r="87" spans="1:14">
+      <c r="A87" s="29" t="s">
+        <v>360</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D87" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E87" s="6"/>
-      <c r="F87" s="4">
+      <c r="F87" s="35">
         <v>1</v>
       </c>
       <c r="G87" s="4"/>
       <c r="H87" s="4"/>
       <c r="I87" s="4"/>
       <c r="J87" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K87" s="4"/>
       <c r="L87" s="4"/>
       <c r="M87" s="4"/>
       <c r="N87" s="4"/>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A88" s="30" t="s">
-        <v>362</v>
+    <row r="88" spans="1:14">
+      <c r="A88" s="29" t="s">
+        <v>360</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D88" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E88" s="6"/>
-      <c r="F88" s="4">
+      <c r="F88" s="35">
         <v>1</v>
       </c>
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
       <c r="I88" s="4"/>
       <c r="J88" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K88" s="4"/>
       <c r="L88" s="4"/>
       <c r="M88" s="4"/>
       <c r="N88" s="4"/>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A89" s="30" t="s">
-        <v>362</v>
+    <row r="89" spans="1:14">
+      <c r="A89" s="29" t="s">
+        <v>360</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D89" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E89" s="6"/>
-      <c r="F89" s="4">
+      <c r="F89" s="35">
         <v>1</v>
       </c>
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
       <c r="I89" s="4"/>
       <c r="J89" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K89" s="4"/>
       <c r="L89" s="4"/>
       <c r="M89" s="4"/>
       <c r="N89" s="4"/>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A90" s="30" t="s">
-        <v>362</v>
+    <row r="90" spans="1:14">
+      <c r="A90" s="29" t="s">
+        <v>360</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D90" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E90" s="6"/>
-      <c r="F90" s="4">
+      <c r="F90" s="35">
         <v>1</v>
       </c>
       <c r="G90" s="4"/>
       <c r="H90" s="4"/>
       <c r="I90" s="4"/>
       <c r="J90" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K90" s="4"/>
       <c r="L90" s="4"/>
       <c r="M90" s="4"/>
       <c r="N90" s="4"/>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A91" s="30" t="s">
-        <v>362</v>
+    <row r="91" spans="1:14">
+      <c r="A91" s="29" t="s">
+        <v>360</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D91" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E91" s="6"/>
-      <c r="F91" s="4">
+      <c r="F91" s="35">
         <v>1</v>
       </c>
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
       <c r="I91" s="4"/>
       <c r="J91" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K91" s="4"/>
       <c r="L91" s="4"/>
       <c r="M91" s="4"/>
       <c r="N91" s="4"/>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A92" s="30" t="s">
-        <v>362</v>
+    <row r="92" spans="1:14">
+      <c r="A92" s="29" t="s">
+        <v>360</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C92" s="6"/>
       <c r="D92" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E92" s="6"/>
-      <c r="F92" s="4">
+      <c r="F92" s="35">
         <v>1</v>
       </c>
       <c r="G92" s="4"/>
       <c r="H92" s="4"/>
       <c r="I92" s="4"/>
       <c r="J92" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K92" s="4"/>
       <c r="L92" s="4"/>
       <c r="M92" s="4"/>
       <c r="N92" s="4"/>
     </row>
-    <row r="93" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A93" s="27" t="s">
+    <row r="93" spans="1:14" ht="14.4">
+      <c r="A93" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="B93" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="C93" s="14" t="s">
         <v>260</v>
-      </c>
-      <c r="B93" s="14" t="s">
-        <v>261</v>
-      </c>
-      <c r="C93" s="14" t="s">
-        <v>262</v>
       </c>
       <c r="D93" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E93" s="14"/>
-      <c r="F93" s="14">
+      <c r="F93" s="35">
         <v>4</v>
       </c>
       <c r="G93" s="14"/>
       <c r="H93" s="14"/>
       <c r="I93" s="14"/>
       <c r="J93" s="14" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K93" s="14"/>
       <c r="L93" s="14">
@@ -45136,242 +45326,242 @@
       <c r="M93" s="14">
         <v>16</v>
       </c>
-      <c r="N93" s="24" t="s">
+      <c r="N93" s="23" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14">
+      <c r="A94" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="B94" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="C94" s="14" t="s">
         <v>264</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A94" s="27" t="s">
-        <v>260</v>
-      </c>
-      <c r="B94" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="C94" s="14" t="s">
-        <v>266</v>
       </c>
       <c r="D94" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E94" s="14"/>
-      <c r="F94" s="14">
+      <c r="F94" s="35">
         <v>1</v>
       </c>
       <c r="G94" s="14"/>
       <c r="H94" s="14"/>
       <c r="I94" s="14"/>
       <c r="J94" s="14" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K94" s="14"/>
       <c r="L94" s="14"/>
       <c r="M94" s="14"/>
       <c r="N94" s="14"/>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A95" s="27" t="s">
-        <v>260</v>
+    <row r="95" spans="1:14">
+      <c r="A95" s="26" t="s">
+        <v>258</v>
       </c>
       <c r="B95" s="14" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D95" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E95" s="14"/>
-      <c r="F95" s="14">
+      <c r="F95" s="35">
         <v>2</v>
       </c>
       <c r="G95" s="14"/>
       <c r="H95" s="14"/>
       <c r="I95" s="14"/>
       <c r="J95" s="14" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K95" s="14"/>
       <c r="L95" s="14"/>
       <c r="M95" s="14"/>
       <c r="N95" s="14"/>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A96" s="27" t="s">
-        <v>260</v>
+    <row r="96" spans="1:14">
+      <c r="A96" s="26" t="s">
+        <v>258</v>
       </c>
       <c r="B96" s="14" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C96" s="14" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D96" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E96" s="14"/>
-      <c r="F96" s="14">
+      <c r="F96" s="35">
         <v>1</v>
       </c>
       <c r="G96" s="14"/>
       <c r="H96" s="14"/>
       <c r="I96" s="14"/>
       <c r="J96" s="14" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K96" s="14"/>
       <c r="L96" s="14"/>
       <c r="M96" s="14"/>
       <c r="N96" s="14"/>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A97" s="27" t="s">
-        <v>260</v>
+    <row r="97" spans="1:16">
+      <c r="A97" s="26" t="s">
+        <v>258</v>
       </c>
       <c r="B97" s="14" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C97" s="14" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D97" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E97" s="14"/>
-      <c r="F97" s="14">
+      <c r="F97" s="35">
         <v>1</v>
       </c>
       <c r="G97" s="14"/>
       <c r="H97" s="14"/>
       <c r="I97" s="14"/>
       <c r="J97" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K97" s="14"/>
       <c r="L97" s="14"/>
       <c r="M97" s="14"/>
       <c r="N97" s="14"/>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A98" s="27" t="s">
-        <v>260</v>
+    <row r="98" spans="1:16">
+      <c r="A98" s="26" t="s">
+        <v>258</v>
       </c>
       <c r="B98" s="14" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C98" s="14" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D98" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E98" s="14"/>
-      <c r="F98" s="14">
+      <c r="F98" s="35">
         <v>1</v>
       </c>
       <c r="G98" s="14"/>
       <c r="H98" s="14"/>
       <c r="I98" s="14"/>
       <c r="J98" s="14" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K98" s="14"/>
       <c r="L98" s="14"/>
       <c r="M98" s="14"/>
       <c r="N98" s="14"/>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A99" s="27" t="s">
-        <v>260</v>
+    <row r="99" spans="1:16">
+      <c r="A99" s="26" t="s">
+        <v>258</v>
       </c>
       <c r="B99" s="14" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C99" s="14" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D99" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E99" s="14"/>
-      <c r="F99" s="14">
+      <c r="F99" s="35">
         <v>1</v>
       </c>
       <c r="G99" s="14"/>
       <c r="H99" s="14"/>
       <c r="I99" s="14"/>
       <c r="J99" s="14" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K99" s="14"/>
       <c r="L99" s="14"/>
       <c r="M99" s="14"/>
       <c r="N99" s="14"/>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A100" s="27" t="s">
-        <v>260</v>
+    <row r="100" spans="1:16">
+      <c r="A100" s="26" t="s">
+        <v>258</v>
       </c>
       <c r="B100" s="14" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C100" s="14"/>
       <c r="D100" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E100" s="14"/>
-      <c r="F100" s="14">
+      <c r="F100" s="35">
         <v>1</v>
       </c>
       <c r="G100" s="14"/>
       <c r="H100" s="14"/>
       <c r="I100" s="14"/>
       <c r="J100" s="14" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K100" s="14"/>
       <c r="L100" s="14"/>
       <c r="M100" s="14"/>
       <c r="N100" s="14"/>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A101" s="27" t="s">
-        <v>260</v>
+    <row r="101" spans="1:16">
+      <c r="A101" s="26" t="s">
+        <v>258</v>
       </c>
       <c r="B101" s="14" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C101" s="14"/>
       <c r="D101" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E101" s="14"/>
-      <c r="F101" s="14">
+      <c r="F101" s="35">
         <v>1</v>
       </c>
       <c r="G101" s="14"/>
       <c r="H101" s="14"/>
       <c r="I101" s="14"/>
       <c r="J101" s="14" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K101" s="14"/>
       <c r="L101" s="14"/>
       <c r="M101" s="14"/>
       <c r="N101" s="14"/>
     </row>
-    <row r="102" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A102" s="30" t="s">
-        <v>363</v>
+    <row r="102" spans="1:16" ht="14.4">
+      <c r="A102" s="29" t="s">
+        <v>361</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="D102" s="6" t="s">
-        <v>14</v>
+        <v>286</v>
+      </c>
+      <c r="D102" s="43" t="s">
+        <v>419</v>
       </c>
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
@@ -45379,31 +45569,31 @@
       <c r="H102" s="4"/>
       <c r="I102" s="4"/>
       <c r="J102" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="K102" s="8" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="L102" s="4">
         <v>3</v>
       </c>
-      <c r="M102" s="32">
+      <c r="M102" s="31">
         <v>15</v>
       </c>
-      <c r="N102" s="26" t="s">
-        <v>289</v>
+      <c r="N102" s="25" t="s">
+        <v>287</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A103" s="25" t="s">
-        <v>287</v>
+    <row r="103" spans="1:16">
+      <c r="A103" s="24" t="s">
+        <v>285</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C103" s="4"/>
-      <c r="D103" s="6" t="s">
-        <v>14</v>
+      <c r="D103" s="43" t="s">
+        <v>420</v>
       </c>
       <c r="E103" s="4"/>
       <c r="F103" s="4">
@@ -45413,25 +45603,25 @@
       <c r="H103" s="4"/>
       <c r="I103" s="4"/>
       <c r="J103" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K103" s="8" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="L103" s="4"/>
       <c r="M103" s="4"/>
       <c r="N103" s="4"/>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A104" s="25" t="s">
-        <v>287</v>
+    <row r="104" spans="1:16">
+      <c r="A104" s="24" t="s">
+        <v>285</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C104" s="4"/>
-      <c r="D104" s="6" t="s">
-        <v>14</v>
+      <c r="D104" s="43" t="s">
+        <v>421</v>
       </c>
       <c r="E104" s="4"/>
       <c r="F104" s="4">
@@ -45441,19 +45631,19 @@
       <c r="H104" s="4"/>
       <c r="I104" s="4"/>
       <c r="J104" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K104" s="4"/>
       <c r="L104" s="4"/>
       <c r="M104" s="4"/>
       <c r="N104" s="4"/>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A105" s="25" t="s">
-        <v>287</v>
+    <row r="105" spans="1:16">
+      <c r="A105" s="24" t="s">
+        <v>285</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="6" t="s">
@@ -45465,166 +45655,162 @@
       <c r="H105" s="4"/>
       <c r="I105" s="4"/>
       <c r="J105" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K105" s="4"/>
       <c r="L105" s="4"/>
       <c r="M105" s="4"/>
       <c r="N105" s="4"/>
     </row>
-    <row r="106" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="27" t="s">
+    <row r="106" spans="1:16" s="10" customFormat="1">
+      <c r="A106" s="26" t="s">
+        <v>346</v>
+      </c>
+      <c r="B106" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="C106" s="15" t="s">
         <v>348</v>
       </c>
-      <c r="B106" s="16" t="s">
+      <c r="D106" s="15" t="s">
         <v>349</v>
       </c>
-      <c r="C106" s="15" t="s">
+      <c r="E106" s="15" t="s">
         <v>350</v>
-      </c>
-      <c r="D106" s="15" t="s">
-        <v>351</v>
-      </c>
-      <c r="E106" s="15" t="s">
-        <v>352</v>
       </c>
       <c r="F106" s="14">
         <v>2</v>
       </c>
       <c r="G106" s="15" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="H106" s="15" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="I106" s="14">
         <v>2291778</v>
       </c>
       <c r="J106" s="15" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="K106" s="14"/>
       <c r="L106" s="14">
         <v>11</v>
       </c>
       <c r="M106" s="14"/>
-      <c r="N106" s="33" t="s">
-        <v>358</v>
-      </c>
+      <c r="N106" s="32" t="s">
+        <v>356</v>
+      </c>
+      <c r="O106" s="40" t="s">
+        <v>390</v>
+      </c>
+      <c r="P106" s="39"/>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A107" s="34" t="s">
-        <v>366</v>
+    <row r="107" spans="1:16">
+      <c r="A107" s="33" t="s">
+        <v>364</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C107" s="4"/>
-      <c r="D107" s="6" t="s">
-        <v>14</v>
+      <c r="D107" s="43" t="s">
+        <v>416</v>
       </c>
       <c r="E107" s="4"/>
-      <c r="F107" s="4">
-        <v>1</v>
-      </c>
+      <c r="F107" s="4"/>
       <c r="G107" s="4"/>
       <c r="H107" s="4"/>
       <c r="I107" s="4"/>
       <c r="J107" s="4" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="K107" s="4"/>
       <c r="L107" s="4">
         <v>10</v>
       </c>
       <c r="M107" s="4"/>
-      <c r="N107" s="31" t="s">
-        <v>378</v>
+      <c r="N107" s="30" t="s">
+        <v>376</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A108" s="34" t="s">
+    <row r="108" spans="1:16">
+      <c r="A108" s="33" t="s">
+        <v>364</v>
+      </c>
+      <c r="B108" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="B108" s="8" t="s">
-        <v>368</v>
-      </c>
       <c r="C108" s="4"/>
-      <c r="D108" s="6" t="s">
-        <v>14</v>
+      <c r="D108" s="43" t="s">
+        <v>418</v>
       </c>
       <c r="E108" s="4"/>
-      <c r="F108" s="4">
-        <v>1</v>
-      </c>
+      <c r="F108" s="4"/>
       <c r="G108" s="4"/>
       <c r="H108" s="4"/>
       <c r="I108" s="4"/>
       <c r="J108" s="4" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K108" s="8" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L108" s="4"/>
       <c r="M108" s="4"/>
       <c r="N108" s="4"/>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A109" s="34" t="s">
-        <v>366</v>
+    <row r="109" spans="1:16">
+      <c r="A109" s="33" t="s">
+        <v>364</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="D109" s="6" t="s">
-        <v>14</v>
+        <v>372</v>
+      </c>
+      <c r="D109" s="43" t="s">
+        <v>417</v>
       </c>
       <c r="E109" s="4"/>
-      <c r="F109" s="4">
-        <v>1</v>
-      </c>
+      <c r="F109" s="4"/>
       <c r="G109" s="4"/>
       <c r="H109" s="4"/>
       <c r="I109" s="4"/>
       <c r="J109" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K109" s="4"/>
       <c r="L109" s="4"/>
       <c r="M109" s="4"/>
       <c r="N109" s="4"/>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A110" s="34" t="s">
-        <v>366</v>
+    <row r="110" spans="1:16">
+      <c r="A110" s="33" t="s">
+        <v>364</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="8" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E110" s="4"/>
-      <c r="F110" s="4">
-        <v>1</v>
-      </c>
+      <c r="F110" s="4"/>
       <c r="G110" s="4"/>
       <c r="H110" s="4"/>
       <c r="I110" s="4"/>
       <c r="J110" s="4" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="K110" s="4"/>
       <c r="L110" s="4"/>
       <c r="M110" s="4"/>
       <c r="N110" s="4"/>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16">
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
@@ -45641,6 +45827,7 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="K2" r:id="rId1"/>
+    <hyperlink ref="O106" display="http://ugcbsy.qq.com/uwMROfz2r5zBIaQXGdGnC2dfJ6rpDQ3b2TKx6JIUPHv8hNH8/b0337bq7vqu.p702.1.mp4?sdtfrom=v1105&amp;guid=ebddc2216a27c93fd40f6ce67cde345b&amp;vkey=89CAA47A9F780A36FE715AB51BEFE638FDA97E7E5D35707EF32B9947EC4DC2C34B121DC6740F7342FEB345AD9ECE8E02A501C1253"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/example/data/markers.xlsx
+++ b/example/data/markers.xlsx
@@ -1106,10 +1106,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>中山大学南方学院是2006年经教育部批准，由中山大学与广东珠江投资集团合作创办的独立学院，是一所多学科全日制应用型本科高等学校，2016年被遴选为广东省普通本科转型试点高校。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>nfsysu</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1504,13 +1500,6 @@
     <t>23.631496,113.682720</t>
   </si>
   <si>
-    <t>https://apd-54752db9f62583136c52f4b402403b96.v.smtcdns.com/vlive.qqvideo.tc.qq.com/A3BvGqZmNFmPZSg_1kFuzwlvfHup1lJm-9RGjbsOm39k/uwMROfz2r5zCIaQXGdGnC2dfDmavB6NbsWKJAiRTQBPbT70a/i0882ohko02.mp4?sdtfrom=v1010&amp;guid=d10280b3e3ca21643d22cb4e3f811535&amp;vkey=C3241276CFB542137A8596C31B5BFB6222867F754B48F94F342E69F56151FF5E2E9FADF43E51C5645DFE9E2580726613BDE4BFAD9C36674F531E5D3C89C4B0FCACDBE24BDFE72A52582418E9187E56457C3235A5821257158EA622E255B100DB96B96E6446C8307CE620695A95F38468E04AAE3C8811565B2F56FC7414E52E25</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://apd-9db62c2545ab2ffaefe26f7136b3f8c9.v.smtcdns.com/vhot2.qqvideo.tc.qq.com/AygxVm-SBgkZ75NudWB3e-uUu4jad5r-rwzZxKVTB8oE/uwMROfz2r5zBIaQXGdGnC2dfJ6rpDQ3b2TKx6JIUPHv8hNH8/b0337bq7vqu.p702.1.mp4?sdtfrom=v1010&amp;guid=d10280b3e3ca21643d22cb4e3f811535&amp;vkey=065185E312F5E98FD73B0E3D6940F6AF2D5C9CCBA163D789EF30E0790C2E4217F8C4307610C3BDB7CF8A1CEA382D6CD5A7DE5656D7CB9722BAFFB021590BE78071870D459866E24F9D7C71AB034273E06A667B4CAD0246A95FDF138CACE4240BBF08E7EA8B070177DF19A8F5A238A8ACD5DEA696221BAB09D400EB2D313117FE</t>
-  </si>
-  <si>
     <t>文学与传媒学院，前身为文学系，创建于2006年，是我校最早设立的学系之一。学院秉承"以生为本、实践育人"的办学理念，坚持内涵建设，在教学中坚持"实践育人"的方向，大力弘扬改革创新精神，以培养具备良好综合素质、深厚的知识底蕴、开阔的学术视野的应用型、复合型人才为目标，不断提高办学层次和教学质量，开创了学科专业融合、课内课外融合、研究应用融合、学生教师融合和校内校外融合"五融合"的培养模式，构建了以知识为基础，以市场为导向，以实践为手段的综合培养平台，为地方和国家培养了一大批新时代高素质应用型人才。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1524,6 +1513,18 @@
   </si>
   <si>
     <t>暂无地点描述</t>
+  </si>
+  <si>
+    <t>i0882ohko02</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>b0337bq7vqu</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>中山大学南方学院是2006年经教育部批准，由中山大学与广东珠江投资集团合作创办的独立学院，是一所多学科全日制应用型本科高等学校，2016年被遴选为广东省普通本科转型试点高校。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2088,9 +2089,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFC116"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q92" sqref="Q92"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N113" sqref="N113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -2140,10 +2141,10 @@
         <v>9</v>
       </c>
       <c r="K1" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="L1" s="18" t="s">
         <v>347</v>
-      </c>
-      <c r="L1" s="18" t="s">
-        <v>348</v>
       </c>
       <c r="M1" s="18" t="s">
         <v>10</v>
@@ -2152,10 +2153,10 @@
         <v>11</v>
       </c>
       <c r="O1" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="P1" s="18" t="s">
         <v>379</v>
-      </c>
-      <c r="P1" s="18" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" ht="14.4">
@@ -2163,13 +2164,13 @@
         <v>12</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="36">
@@ -2186,7 +2187,7 @@
         <v>15</v>
       </c>
       <c r="K2" s="22" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="L2" s="12">
         <v>0</v>
@@ -2207,7 +2208,7 @@
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="20" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="34">
@@ -2233,7 +2234,7 @@
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="20" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="34">
@@ -2255,11 +2256,11 @@
         <v>12</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="20" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="34">
@@ -2285,7 +2286,7 @@
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="20" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="34">
@@ -2295,7 +2296,7 @@
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
       <c r="J6" s="13" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
@@ -2311,7 +2312,7 @@
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="20" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
@@ -2335,7 +2336,7 @@
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="20" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13">
@@ -2361,7 +2362,7 @@
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="20" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="34">
@@ -2383,11 +2384,11 @@
         <v>12</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="20" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="34"/>
@@ -2395,7 +2396,7 @@
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
       <c r="J10" s="13" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
@@ -2413,7 +2414,7 @@
         <v>28</v>
       </c>
       <c r="D11" s="41" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>29</v>
@@ -2440,10 +2441,10 @@
         <v>31</v>
       </c>
       <c r="O11" s="44" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="P11" s="37" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -2457,7 +2458,7 @@
         <v>33</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>34</v>
@@ -2491,7 +2492,7 @@
         <v>38</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>39</v>
@@ -2525,7 +2526,7 @@
         <v>43</v>
       </c>
       <c r="D14" s="40" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>44</v>
@@ -2559,7 +2560,7 @@
         <v>47</v>
       </c>
       <c r="D15" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>48</v>
@@ -2593,7 +2594,7 @@
         <v>52</v>
       </c>
       <c r="D16" s="39" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>53</v>
@@ -2627,7 +2628,7 @@
         <v>57</v>
       </c>
       <c r="D17" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>58</v>
@@ -2659,7 +2660,7 @@
         <v>62</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>63</v>
@@ -2693,7 +2694,7 @@
         <v>67</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>68</v>
@@ -2725,7 +2726,7 @@
         <v>72</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="35">
@@ -2753,7 +2754,7 @@
         <v>75</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="35">
@@ -2781,7 +2782,7 @@
         <v>78</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="35">
@@ -2809,7 +2810,7 @@
         <v>81</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="35">
@@ -2837,7 +2838,7 @@
         <v>84</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="35">
@@ -2865,7 +2866,7 @@
         <v>87</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>88</v>
@@ -2897,7 +2898,7 @@
         <v>92</v>
       </c>
       <c r="D26" s="41" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>93</v>
@@ -2923,13 +2924,13 @@
         <v>96</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="35"/>
@@ -2937,7 +2938,7 @@
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K27" s="4"/>
       <c r="L27" s="14">
@@ -2958,10 +2959,10 @@
         <v>97</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E28" s="14"/>
       <c r="F28" s="35">
@@ -2969,7 +2970,7 @@
       </c>
       <c r="G28" s="14"/>
       <c r="H28" s="15" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I28" s="14"/>
       <c r="J28" s="14" t="s">
@@ -2988,13 +2989,13 @@
         <v>101</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
       <c r="G29" s="14"/>
       <c r="H29" s="20" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I29" s="14"/>
       <c r="J29" s="14" t="s">
@@ -3016,17 +3017,17 @@
         <v>101</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
       <c r="G30" s="14"/>
       <c r="H30" s="20" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="I30" s="14"/>
       <c r="J30" s="14" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="K30" s="14"/>
       <c r="L30" s="14"/>
@@ -3041,10 +3042,10 @@
         <v>105</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E31" s="14"/>
       <c r="F31" s="35">
@@ -3052,7 +3053,7 @@
       </c>
       <c r="G31" s="14"/>
       <c r="H31" s="20" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="I31" s="14"/>
       <c r="J31" s="14" t="s">
@@ -3071,10 +3072,10 @@
         <v>107</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E32" s="14"/>
       <c r="F32" s="35">
@@ -3082,7 +3083,7 @@
       </c>
       <c r="G32" s="14"/>
       <c r="H32" s="20" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I32" s="14"/>
       <c r="J32" s="14" t="s">
@@ -3098,21 +3099,21 @@
         <v>96</v>
       </c>
       <c r="B33" s="42" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C33" s="14"/>
       <c r="D33" s="20" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E33" s="14"/>
       <c r="F33" s="14"/>
       <c r="G33" s="14"/>
       <c r="H33" s="20" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I33" s="14"/>
       <c r="J33" s="15" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K33" s="14"/>
       <c r="L33" s="14"/>
@@ -3128,7 +3129,7 @@
       </c>
       <c r="C34" s="14"/>
       <c r="D34" s="12" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E34" s="14"/>
       <c r="F34" s="35">
@@ -3155,10 +3156,10 @@
         <v>112</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E35" s="14"/>
       <c r="F35" s="35">
@@ -3186,7 +3187,7 @@
         <v>115</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E36" s="14"/>
       <c r="F36" s="35">
@@ -3212,7 +3213,7 @@
       </c>
       <c r="C37" s="14"/>
       <c r="D37" s="12" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E37" s="14"/>
       <c r="F37" s="35">
@@ -3242,7 +3243,7 @@
         <v>338</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E38" s="14"/>
       <c r="F38" s="35">
@@ -16803,13 +16804,13 @@
         <v>96</v>
       </c>
       <c r="B39" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="C39" s="15" t="s">
         <v>366</v>
       </c>
-      <c r="C39" s="15" t="s">
-        <v>367</v>
-      </c>
       <c r="D39" s="20" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E39" s="14"/>
       <c r="F39" s="14"/>
@@ -16817,7 +16818,7 @@
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
       <c r="J39" s="14" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K39" s="14"/>
       <c r="L39" s="14"/>
@@ -30372,7 +30373,7 @@
       </c>
       <c r="C40" s="16"/>
       <c r="D40" s="12" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E40" s="14"/>
       <c r="F40" s="35">
@@ -43935,11 +43936,11 @@
         <v>96</v>
       </c>
       <c r="B41" s="42" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C41" s="16"/>
       <c r="D41" s="12" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E41" s="14"/>
       <c r="F41" s="35"/>
@@ -43947,7 +43948,7 @@
       <c r="H41" s="14"/>
       <c r="I41" s="14"/>
       <c r="J41" s="14" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="K41" s="14"/>
       <c r="L41" s="14"/>
@@ -57504,7 +57505,7 @@
         <v>125</v>
       </c>
       <c r="D42" s="41" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="35">
@@ -57536,7 +57537,7 @@
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="41" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
@@ -57562,7 +57563,7 @@
         <v>132</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E44" s="14"/>
       <c r="F44" s="35">
@@ -57600,7 +57601,7 @@
         <v>137</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E45" s="14"/>
       <c r="F45" s="35">
@@ -57630,7 +57631,7 @@
         <v>142</v>
       </c>
       <c r="D46" s="41" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E46" s="7"/>
       <c r="F46" s="34">
@@ -57664,7 +57665,7 @@
         <v>145</v>
       </c>
       <c r="D47" s="41" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E47" s="7"/>
       <c r="F47" s="34">
@@ -57692,7 +57693,7 @@
         <v>148</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E48" s="7"/>
       <c r="F48" s="34">
@@ -57711,7 +57712,7 @@
     </row>
     <row r="49" spans="1:14" ht="14.4">
       <c r="A49" s="28" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B49" s="15" t="s">
         <v>295</v>
@@ -57720,7 +57721,7 @@
         <v>150</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E49" s="14"/>
       <c r="F49" s="35">
@@ -57745,7 +57746,7 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="28" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B50" s="15" t="s">
         <v>296</v>
@@ -57754,7 +57755,7 @@
         <v>153</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E50" s="14"/>
       <c r="F50" s="35">
@@ -57773,7 +57774,7 @@
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="28" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B51" s="15" t="s">
         <v>297</v>
@@ -57782,7 +57783,7 @@
         <v>155</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E51" s="14"/>
       <c r="F51" s="35">
@@ -57801,7 +57802,7 @@
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="28" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B52" s="15" t="s">
         <v>306</v>
@@ -57810,7 +57811,7 @@
         <v>157</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E52" s="14"/>
       <c r="F52" s="35">
@@ -57829,7 +57830,7 @@
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="28" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B53" s="15" t="s">
         <v>307</v>
@@ -57838,7 +57839,7 @@
         <v>159</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E53" s="14"/>
       <c r="F53" s="35">
@@ -57857,7 +57858,7 @@
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="28" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B54" s="15" t="s">
         <v>308</v>
@@ -57866,7 +57867,7 @@
         <v>161</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E54" s="14"/>
       <c r="F54" s="35">
@@ -57885,7 +57886,7 @@
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="28" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B55" s="15" t="s">
         <v>309</v>
@@ -57894,7 +57895,7 @@
         <v>163</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E55" s="14"/>
       <c r="F55" s="35">
@@ -57913,7 +57914,7 @@
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="28" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B56" s="15" t="s">
         <v>310</v>
@@ -57922,7 +57923,7 @@
         <v>165</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E56" s="14"/>
       <c r="F56" s="35">
@@ -57941,7 +57942,7 @@
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="28" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B57" s="15" t="s">
         <v>329</v>
@@ -57950,7 +57951,7 @@
         <v>167</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E57" s="14"/>
       <c r="F57" s="35">
@@ -57969,7 +57970,7 @@
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="28" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B58" s="15" t="s">
         <v>328</v>
@@ -57978,7 +57979,7 @@
         <v>169</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E58" s="14"/>
       <c r="F58" s="35">
@@ -57997,7 +57998,7 @@
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="28" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B59" s="15" t="s">
         <v>327</v>
@@ -58006,7 +58007,7 @@
         <v>171</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E59" s="14"/>
       <c r="F59" s="35">
@@ -58025,7 +58026,7 @@
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="28" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B60" s="15" t="s">
         <v>326</v>
@@ -58034,7 +58035,7 @@
         <v>173</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E60" s="14"/>
       <c r="F60" s="35">
@@ -58053,7 +58054,7 @@
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="28" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B61" s="15" t="s">
         <v>311</v>
@@ -58062,7 +58063,7 @@
         <v>175</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E61" s="14"/>
       <c r="F61" s="35">
@@ -58081,7 +58082,7 @@
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="28" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B62" s="15" t="s">
         <v>325</v>
@@ -58090,7 +58091,7 @@
         <v>177</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E62" s="14"/>
       <c r="F62" s="35">
@@ -58109,7 +58110,7 @@
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="28" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B63" s="15" t="s">
         <v>324</v>
@@ -58118,7 +58119,7 @@
         <v>179</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E63" s="12"/>
       <c r="F63" s="35">
@@ -58137,7 +58138,7 @@
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="28" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B64" s="15" t="s">
         <v>323</v>
@@ -58146,7 +58147,7 @@
         <v>181</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E64" s="14"/>
       <c r="F64" s="35">
@@ -58165,7 +58166,7 @@
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="28" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B65" s="15" t="s">
         <v>322</v>
@@ -58174,7 +58175,7 @@
         <v>183</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E65" s="14"/>
       <c r="F65" s="35">
@@ -58193,7 +58194,7 @@
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="28" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B66" s="15" t="s">
         <v>320</v>
@@ -58202,7 +58203,7 @@
         <v>185</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E66" s="14"/>
       <c r="F66" s="35">
@@ -58221,7 +58222,7 @@
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="28" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B67" s="15" t="s">
         <v>319</v>
@@ -58230,7 +58231,7 @@
         <v>187</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E67" s="14"/>
       <c r="F67" s="35">
@@ -58249,7 +58250,7 @@
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="28" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B68" s="15" t="s">
         <v>321</v>
@@ -58258,7 +58259,7 @@
         <v>189</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E68" s="14"/>
       <c r="F68" s="35">
@@ -58277,7 +58278,7 @@
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="28" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B69" s="15" t="s">
         <v>318</v>
@@ -58286,7 +58287,7 @@
         <v>191</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E69" s="14"/>
       <c r="F69" s="35">
@@ -58305,7 +58306,7 @@
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="28" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B70" s="15" t="s">
         <v>317</v>
@@ -58314,7 +58315,7 @@
         <v>193</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E70" s="14"/>
       <c r="F70" s="35">
@@ -58333,7 +58334,7 @@
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="28" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B71" s="15" t="s">
         <v>316</v>
@@ -58342,7 +58343,7 @@
         <v>195</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E71" s="14"/>
       <c r="F71" s="35">
@@ -58361,7 +58362,7 @@
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="28" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B72" s="15" t="s">
         <v>315</v>
@@ -58370,7 +58371,7 @@
         <v>197</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E72" s="14"/>
       <c r="F72" s="35">
@@ -58389,7 +58390,7 @@
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="28" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B73" s="15" t="s">
         <v>312</v>
@@ -58398,7 +58399,7 @@
         <v>199</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E73" s="14"/>
       <c r="F73" s="35">
@@ -58417,7 +58418,7 @@
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="28" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B74" s="15" t="s">
         <v>313</v>
@@ -58426,7 +58427,7 @@
         <v>201</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E74" s="14"/>
       <c r="F74" s="35">
@@ -58445,7 +58446,7 @@
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="28" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B75" s="15" t="s">
         <v>314</v>
@@ -58454,7 +58455,7 @@
         <v>203</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E75" s="14"/>
       <c r="F75" s="35">
@@ -58473,7 +58474,7 @@
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="28" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B76" s="15" t="s">
         <v>305</v>
@@ -58482,7 +58483,7 @@
         <v>205</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E76" s="14"/>
       <c r="F76" s="35">
@@ -58501,7 +58502,7 @@
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="28" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B77" s="15" t="s">
         <v>304</v>
@@ -58510,7 +58511,7 @@
         <v>207</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E77" s="14"/>
       <c r="F77" s="35">
@@ -58529,7 +58530,7 @@
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="28" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B78" s="15" t="s">
         <v>303</v>
@@ -58538,7 +58539,7 @@
         <v>209</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E78" s="14"/>
       <c r="F78" s="35">
@@ -58557,7 +58558,7 @@
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="28" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B79" s="15" t="s">
         <v>302</v>
@@ -58566,7 +58567,7 @@
         <v>211</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E79" s="14"/>
       <c r="F79" s="35">
@@ -58585,7 +58586,7 @@
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="28" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B80" s="15" t="s">
         <v>301</v>
@@ -58594,7 +58595,7 @@
         <v>213</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E80" s="14"/>
       <c r="F80" s="35">
@@ -58613,7 +58614,7 @@
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="28" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B81" s="15" t="s">
         <v>300</v>
@@ -58622,7 +58623,7 @@
         <v>215</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E81" s="14"/>
       <c r="F81" s="35">
@@ -58641,7 +58642,7 @@
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="28" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B82" s="15" t="s">
         <v>299</v>
@@ -58650,7 +58651,7 @@
         <v>217</v>
       </c>
       <c r="D82" s="12" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E82" s="14"/>
       <c r="F82" s="35">
@@ -58669,7 +58670,7 @@
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="28" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B83" s="15" t="s">
         <v>298</v>
@@ -58678,7 +58679,7 @@
         <v>219</v>
       </c>
       <c r="D83" s="20" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E83" s="14"/>
       <c r="F83" s="35">
@@ -58697,16 +58698,16 @@
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="28" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B84" s="15" t="s">
+        <v>438</v>
+      </c>
+      <c r="C84" s="14" t="s">
         <v>439</v>
       </c>
-      <c r="C84" s="14" t="s">
-        <v>440</v>
-      </c>
       <c r="D84" s="6" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E84" s="14"/>
       <c r="F84" s="35"/>
@@ -58714,7 +58715,7 @@
       <c r="H84" s="14"/>
       <c r="I84" s="14"/>
       <c r="J84" s="14" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K84" s="14"/>
       <c r="L84" s="14"/>
@@ -58723,7 +58724,7 @@
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="29" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B85" s="8" t="s">
         <v>294</v>
@@ -58732,7 +58733,7 @@
         <v>221</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E85" s="6"/>
       <c r="F85" s="35">
@@ -58750,12 +58751,12 @@
       </c>
       <c r="M85" s="4"/>
       <c r="N85" s="30" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="29" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>223</v>
@@ -58764,7 +58765,7 @@
         <v>224</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E86" s="6"/>
       <c r="F86" s="35">
@@ -58783,7 +58784,7 @@
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="29" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>226</v>
@@ -58792,7 +58793,7 @@
         <v>227</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E87" s="6"/>
       <c r="F87" s="35">
@@ -58811,7 +58812,7 @@
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="29" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>229</v>
@@ -58820,7 +58821,7 @@
         <v>230</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E88" s="6"/>
       <c r="F88" s="35">
@@ -58839,7 +58840,7 @@
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="29" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>232</v>
@@ -58848,7 +58849,7 @@
         <v>233</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E89" s="6"/>
       <c r="F89" s="35">
@@ -58867,7 +58868,7 @@
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="29" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>235</v>
@@ -58876,7 +58877,7 @@
         <v>236</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E90" s="6"/>
       <c r="F90" s="35">
@@ -58895,7 +58896,7 @@
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="29" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>238</v>
@@ -58904,7 +58905,7 @@
         <v>239</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E91" s="6"/>
       <c r="F91" s="35">
@@ -58923,7 +58924,7 @@
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="29" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>241</v>
@@ -58932,7 +58933,7 @@
         <v>242</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E92" s="6"/>
       <c r="F92" s="35">
@@ -58951,7 +58952,7 @@
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="29" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>244</v>
@@ -58960,7 +58961,7 @@
         <v>245</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E93" s="6"/>
       <c r="F93" s="35">
@@ -58979,7 +58980,7 @@
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="29" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>247</v>
@@ -58988,7 +58989,7 @@
         <v>248</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E94" s="6"/>
       <c r="F94" s="35">
@@ -59007,7 +59008,7 @@
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="29" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>250</v>
@@ -59016,7 +59017,7 @@
         <v>251</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E95" s="6"/>
       <c r="F95" s="35">
@@ -59044,7 +59045,7 @@
         <v>255</v>
       </c>
       <c r="D96" s="12" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E96" s="14"/>
       <c r="F96" s="35">
@@ -59078,7 +59079,7 @@
         <v>259</v>
       </c>
       <c r="D97" s="12" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E97" s="14"/>
       <c r="F97" s="35">
@@ -59106,7 +59107,7 @@
         <v>262</v>
       </c>
       <c r="D98" s="12" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E98" s="14"/>
       <c r="F98" s="35">
@@ -59134,7 +59135,7 @@
         <v>265</v>
       </c>
       <c r="D99" s="12" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E99" s="14"/>
       <c r="F99" s="35">
@@ -59162,7 +59163,7 @@
         <v>268</v>
       </c>
       <c r="D100" s="12" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E100" s="14"/>
       <c r="F100" s="35">
@@ -59190,7 +59191,7 @@
         <v>271</v>
       </c>
       <c r="D101" s="12" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E101" s="14"/>
       <c r="F101" s="35">
@@ -59218,7 +59219,7 @@
         <v>274</v>
       </c>
       <c r="D102" s="12" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E102" s="14"/>
       <c r="F102" s="35">
@@ -59244,7 +59245,7 @@
       </c>
       <c r="C103" s="14"/>
       <c r="D103" s="12" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E103" s="14"/>
       <c r="F103" s="35">
@@ -59270,7 +59271,7 @@
       </c>
       <c r="C104" s="14"/>
       <c r="D104" s="12" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E104" s="14"/>
       <c r="F104" s="35">
@@ -59289,16 +59290,16 @@
     </row>
     <row r="105" spans="1:16" ht="14.4">
       <c r="A105" s="29" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>281</v>
       </c>
       <c r="D105" s="41" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
@@ -59306,10 +59307,10 @@
       <c r="H105" s="4"/>
       <c r="I105" s="4"/>
       <c r="J105" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K105" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L105" s="4">
         <v>3</v>
@@ -59330,7 +59331,7 @@
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="41" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E106" s="4"/>
       <c r="F106" s="4">
@@ -59343,7 +59344,7 @@
         <v>283</v>
       </c>
       <c r="K106" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="L106" s="4"/>
       <c r="M106" s="4"/>
@@ -59358,7 +59359,7 @@
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="41" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E107" s="4"/>
       <c r="F107" s="4">
@@ -59384,7 +59385,7 @@
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="6" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
@@ -59410,25 +59411,25 @@
         <v>341</v>
       </c>
       <c r="D109" s="15" t="s">
+        <v>447</v>
+      </c>
+      <c r="E109" s="15" t="s">
         <v>342</v>
-      </c>
-      <c r="E109" s="15" t="s">
-        <v>343</v>
       </c>
       <c r="F109" s="14">
         <v>2</v>
       </c>
       <c r="G109" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="H109" s="15" t="s">
         <v>344</v>
-      </c>
-      <c r="H109" s="15" t="s">
-        <v>345</v>
       </c>
       <c r="I109" s="14">
         <v>2291778</v>
       </c>
       <c r="J109" s="15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K109" s="14"/>
       <c r="L109" s="14">
@@ -59436,23 +59437,23 @@
       </c>
       <c r="M109" s="14"/>
       <c r="N109" s="32" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="O109" s="44" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="P109" s="38"/>
     </row>
     <row r="110" spans="1:16">
       <c r="A110" s="33" t="s">
+        <v>356</v>
+      </c>
+      <c r="B110" s="9" t="s">
         <v>357</v>
-      </c>
-      <c r="B110" s="9" t="s">
-        <v>358</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="41" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
@@ -59460,7 +59461,7 @@
       <c r="H110" s="4"/>
       <c r="I110" s="4"/>
       <c r="J110" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="K110" s="4"/>
       <c r="L110" s="4">
@@ -59468,19 +59469,19 @@
       </c>
       <c r="M110" s="4"/>
       <c r="N110" s="30" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="111" spans="1:16">
       <c r="A111" s="33" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B111" s="45" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="41" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E111" s="4"/>
       <c r="F111" s="4">
@@ -59490,10 +59491,10 @@
       <c r="H111" s="4"/>
       <c r="I111" s="4"/>
       <c r="J111" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K111" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="L111" s="4"/>
       <c r="M111" s="4"/>
@@ -59501,16 +59502,16 @@
     </row>
     <row r="112" spans="1:16">
       <c r="A112" s="33" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B112" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="C112" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="C112" s="4" t="s">
-        <v>365</v>
-      </c>
       <c r="D112" s="41" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E112" s="4"/>
       <c r="F112" s="4">
@@ -59520,7 +59521,7 @@
       <c r="H112" s="4"/>
       <c r="I112" s="4"/>
       <c r="J112" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K112" s="4"/>
       <c r="L112" s="4"/>
@@ -59529,14 +59530,14 @@
     </row>
     <row r="113" spans="1:14">
       <c r="A113" s="33" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
@@ -59544,7 +59545,7 @@
       <c r="H113" s="4"/>
       <c r="I113" s="4"/>
       <c r="J113" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="K113" s="4"/>
       <c r="L113" s="4"/>
@@ -59553,14 +59554,14 @@
     </row>
     <row r="114" spans="1:14">
       <c r="A114" s="33" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C114" s="5"/>
       <c r="D114" s="8" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E114" s="5"/>
       <c r="F114" s="5"/>
@@ -59568,37 +59569,37 @@
       <c r="H114" s="5"/>
       <c r="I114" s="5"/>
       <c r="J114" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="K114" s="5"/>
       <c r="L114" s="5"/>
     </row>
     <row r="115" spans="1:14">
       <c r="A115" s="33" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D115" s="20" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="J115" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="116" spans="1:14">
       <c r="A116" s="33" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J116" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
   </sheetData>
@@ -59606,10 +59607,8 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="K2" r:id="rId1"/>
-    <hyperlink ref="O11" r:id="rId2" display="https://apd-54752db9f62583136c52f4b402403b96.v.smtcdns.com/vlive.qqvideo.tc.qq.com/A3BvGqZmNFmPZSg_1kFuzwlvfHup1lJm-9RGjbsOm39k/uwMROfz2r5zCIaQXGdGnC2dfDmavB6NbsWKJAiRTQBPbT70a/i0882ohko02.mp4?sdtfrom=v1010&amp;guid=d10280b3e3ca21643d22cb4e3f811535&amp;vkey=C3241276CFB542137A8596C31B5BFB6222867F754B48F94F342E69F56151FF5E2E9FADF43E51C5645DFE9E2580726613BDE4BFAD9C36674F531E5D3C89C4B0FCACDBE24BDFE72A52582418E9187E56457C3235A5821257158EA622E255B100DB96B96E6446C8307CE620695A95F38468E04AAE3C8811565B2F56FC7414E52E25"/>
-    <hyperlink ref="O109" r:id="rId3" display="https://apd-9db62c2545ab2ffaefe26f7136b3f8c9.v.smtcdns.com/vhot2.qqvideo.tc.qq.com/AygxVm-SBgkZ75NudWB3e-uUu4jad5r-rwzZxKVTB8oE/uwMROfz2r5zBIaQXGdGnC2dfJ6rpDQ3b2TKx6JIUPHv8hNH8/b0337bq7vqu.p702.1.mp4?sdtfrom=v1010&amp;guid=d10280b3e3ca21643d22cb4e3f811535&amp;vkey=065185E312F5E98FD73B0E3D6940F6AF2D5C9CCBA163D789EF30E0790C2E4217F8C4307610C3BDB7CF8A1CEA382D6CD5A7DE5656D7CB9722BAFFB021590BE78071870D459866E24F9D7C71AB034273E06A667B4CAD0246A95FDF138CACE4240BBF08E7EA8B070177DF19A8F5A238A8ACD5DEA696221BAB09D400EB2D313117FE"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>